--- a/data/hotels_by_city/Denver/Denver_shard_189.xlsx
+++ b/data/hotels_by_city/Denver/Denver_shard_189.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="724">
   <si>
     <t>STR#</t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g33388-d12289100-Reviews-Le_Meridien_Denver_Downtown-Denver_Colorado.html</t>
   </si>
   <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>164</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Denver-Hotels-Le-Meridien-Denver-Downtown.h17443003.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,2098 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/04/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12289100-r599075403-Le_Meridien_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>33388</t>
+  </si>
+  <si>
+    <t>12289100</t>
+  </si>
+  <si>
+    <t>599075403</t>
+  </si>
+  <si>
+    <t>07/23/2018</t>
+  </si>
+  <si>
+    <t>Bartenders Extraordinaires!</t>
+  </si>
+  <si>
+    <t>Marcus and Whitney-bartenders extraordinaires!  While waiting to go up to the highest rooftop bar in Denver, Marcus concocted a delicious coctail for me which he dubbed, “The Boulder” and both he and Whitney were delightfully entertaining! I would say to the powers-that-be, they deserve a raise!!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Gosia S, Manager at Le Meridien Denver Downtown, responded to this reviewResponded 1 week ago</t>
+  </si>
+  <si>
+    <t>Responded 1 week ago</t>
+  </si>
+  <si>
+    <t>Marcus and Whitney-bartenders extraordinaires!  While waiting to go up to the highest rooftop bar in Denver, Marcus concocted a delicious coctail for me which he dubbed, “The Boulder” and both he and Whitney were delightfully entertaining! I would say to the powers-that-be, they deserve a raise!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12289100-r597101635-Le_Meridien_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>597101635</t>
+  </si>
+  <si>
+    <t>07/17/2018</t>
+  </si>
+  <si>
+    <t>Great everything.</t>
+  </si>
+  <si>
+    <t>Stayed here for 5 nights for work. Great location, attentive staff, great amenities. Barely 2 blocks from the convention center and a 1 mile walk from the ballpark and Union Station. Clean rooms. Had a problem with water pressure and it was fixed within hours with a nice note from maintenance explaining the issue. Apparently the bar on the roof is THE place to be seen. Full of fairly pretentious people but a good view of the city. I was there for work so it did not really matter to me. I definitely recommend as it has all of the usual things to love about Starwood properties.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Stayed here for 5 nights for work. Great location, attentive staff, great amenities. Barely 2 blocks from the convention center and a 1 mile walk from the ballpark and Union Station. Clean rooms. Had a problem with water pressure and it was fixed within hours with a nice note from maintenance explaining the issue. Apparently the bar on the roof is THE place to be seen. Full of fairly pretentious people but a good view of the city. I was there for work so it did not really matter to me. I definitely recommend as it has all of the usual things to love about Starwood properties.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12289100-r596340796-Le_Meridien_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>596340796</t>
+  </si>
+  <si>
+    <t>07/15/2018</t>
+  </si>
+  <si>
+    <t>Visit for a conference</t>
+  </si>
+  <si>
+    <t>The hotel was a typical boutique hotel; neat rooms, modern style, very friendly staff. Even when there was a problem with hot water they fixed it immediately, with a complimentary breakfast ticket.The breakfast was good and the coffee was delicious.Hotel's location was very convenient for me; it was just across the street for the conference venue, and one-block away from 16th st. Mall which was nice to visitYes I would recommend this hotel for a business trip.MoreShow less</t>
+  </si>
+  <si>
+    <t>Gosia S, Manager at Le Meridien Denver Downtown, responded to this reviewResponded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>The hotel was a typical boutique hotel; neat rooms, modern style, very friendly staff. Even when there was a problem with hot water they fixed it immediately, with a complimentary breakfast ticket.The breakfast was good and the coffee was delicious.Hotel's location was very convenient for me; it was just across the street for the conference venue, and one-block away from 16th st. Mall which was nice to visitYes I would recommend this hotel for a business trip.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12289100-r594457222-Le_Meridien_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>594457222</t>
+  </si>
+  <si>
+    <t>07/09/2018</t>
+  </si>
+  <si>
+    <t>First time at this new Denver hotel</t>
+  </si>
+  <si>
+    <t>We decided to stay downtown for the recent Eagles concert in Denver.  The usual hotels we stay at were booked so we tried the newest Starwood property, the Le Meridian.It was a great place with a hip decor and bar in the lobby.  It’s definitely a hotel I’ll recommend to my colleagues when they’re here.MoreShow less</t>
+  </si>
+  <si>
+    <t>Gosia S, Manager at Le Meridien Denver Downtown, responded to this reviewResponded 3 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 3 weeks ago</t>
+  </si>
+  <si>
+    <t>We decided to stay downtown for the recent Eagles concert in Denver.  The usual hotels we stay at were booked so we tried the newest Starwood property, the Le Meridian.It was a great place with a hip decor and bar in the lobby.  It’s definitely a hotel I’ll recommend to my colleagues when they’re here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12289100-r594146480-Le_Meridien_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>594146480</t>
+  </si>
+  <si>
+    <t>07/08/2018</t>
+  </si>
+  <si>
+    <t>Very nice hotel</t>
+  </si>
+  <si>
+    <t>We stayed here for our vacation to Denver.  Great location, close to everything in downtown.  Can walk most anywhere from the hotel.  Warm, welcoming staff.  Modern upscale rooms.  Comfy bed!  I would definitely stay here again. MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>We stayed here for our vacation to Denver.  Great location, close to everything in downtown.  Can walk most anywhere from the hotel.  Warm, welcoming staff.  Modern upscale rooms.  Comfy bed!  I would definitely stay here again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12289100-r592985407-Le_Meridien_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>592985407</t>
+  </si>
+  <si>
+    <t>07/04/2018</t>
+  </si>
+  <si>
+    <t>Nice stay at the last minute</t>
+  </si>
+  <si>
+    <t>Arrived after midnight as flight at DEN was canceled. Happened to arrive as the crowd from the rooftop bar was exiting into the lobby. LOUD. Room was clean and compact. Worked well for one person, two would require a bit of negotiation. Next morning to breakfast in the restaurant, Corrine. Was seated at the bar and then ignored for 15 minutes. Bartender showed up, asking why I was there, I said breakfast, and he apologized as they weren't open for service yet, but he would take care of me, which he did. Hash and fried egg were excellent and the gifted mimosa helped.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t>Niels V, General Manager at Le Meridien Denver Downtown, responded to this reviewResponded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>Arrived after midnight as flight at DEN was canceled. Happened to arrive as the crowd from the rooftop bar was exiting into the lobby. LOUD. Room was clean and compact. Worked well for one person, two would require a bit of negotiation. Next morning to breakfast in the restaurant, Corrine. Was seated at the bar and then ignored for 15 minutes. Bartender showed up, asking why I was there, I said breakfast, and he apologized as they weren't open for service yet, but he would take care of me, which he did. Hash and fried egg were excellent and the gifted mimosa helped.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12289100-r592221251-Le_Meridien_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>592221251</t>
+  </si>
+  <si>
+    <t>07/01/2018</t>
+  </si>
+  <si>
+    <t>Up’s and Down’s in Denver</t>
+  </si>
+  <si>
+    <t>Stayed 3 nights at this downtown boutique hotel for business trip.  Location is good if you want to explore 16th Street Mall area.  Hotel trying a bit too hard to be chic/hip with very loud music as you enter lobby and sitting areas trying to be mod (rather than making room for a real front desk.) Music is disorienting. Rooms are good size, very clean and well appointed.  Young staff try hard to be helpful but appear to lack some important experience that comes with time on the job.  Had dinner in connected restaurant. Good not great as advertised.  All in all a hotel sincerely trying to be great but needing to re-think some priorities. Would stay there again once time has passed and staff mature to the job at hand.MoreShow less</t>
+  </si>
+  <si>
+    <t>Gosia S, Manager at Le Meridien Denver Downtown, responded to this reviewResponded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>Stayed 3 nights at this downtown boutique hotel for business trip.  Location is good if you want to explore 16th Street Mall area.  Hotel trying a bit too hard to be chic/hip with very loud music as you enter lobby and sitting areas trying to be mod (rather than making room for a real front desk.) Music is disorienting. Rooms are good size, very clean and well appointed.  Young staff try hard to be helpful but appear to lack some important experience that comes with time on the job.  Had dinner in connected restaurant. Good not great as advertised.  All in all a hotel sincerely trying to be great but needing to re-think some priorities. Would stay there again once time has passed and staff mature to the job at hand.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12289100-r592143898-Le_Meridien_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>592143898</t>
+  </si>
+  <si>
+    <t>Horrible Service/ four seasons it’s not!!</t>
+  </si>
+  <si>
+    <t>First off this place has great decor.  Lovey.  Nice smaller room but clean overall-  that’s about it!    We paid over $650.00 bucks for one night!   They can’t even get the basics right!!   The valet parking and check in was a joke!   Not one person asked us if they could take our luggage. Not one person opened a door with our hands full!   This GM should be fired!   We got to the room and it was fine.    No issues there.  The next morning we came down for breakfast and the comedy continued!   We sat down outside and ordered coffee and ice tea.  The ice tea came out only after I complained.   Then the coffee took another 10 minutes.  The excuse was they were brewing a fresh pot.   Really!   Coffee needs to come out right away and be fresh!   Hello this is not Days Inn!   Breakfast order took 30 minutes.   The waiter did not offer jam and butter for our English Muffin- this stuff is basic.   Like I said the GM should’ve fired!   We finished our 1 hour breakfast.    
+Then we went back up to our room gathered our bags and called down to have valet bring our car around.    The comedy continues.  The bozo on the phone tells us they don’t bring valet cars around but yet the dude parking our car told me call down for your car when you’re ready.    What a joke!   This same guy on the phone...First off this place has great decor.  Lovey.  Nice smaller room but clean overall-  that’s about it!    We paid over $650.00 bucks for one night!   They can’t even get the basics right!!   The valet parking and check in was a joke!   Not one person asked us if they could take our luggage. Not one person opened a door with our hands full!   This GM should be fired!   We got to the room and it was fine.    No issues there.  The next morning we came down for breakfast and the comedy continued!   We sat down outside and ordered coffee and ice tea.  The ice tea came out only after I complained.   Then the coffee took another 10 minutes.  The excuse was they were brewing a fresh pot.   Really!   Coffee needs to come out right away and be fresh!   Hello this is not Days Inn!   Breakfast order took 30 minutes.   The waiter did not offer jam and butter for our English Muffin- this stuff is basic.   Like I said the GM should’ve fired!   We finished our 1 hour breakfast.    Then we went back up to our room gathered our bags and called down to have valet bring our car around.    The comedy continues.  The bozo on the phone tells us they don’t bring valet cars around but yet the dude parking our car told me call down for your car when you’re ready.    What a joke!   This same guy on the phone should have asked if we needed help with our luggage.  Of course he did not ask us so down with our luggage we go!   We waited for our car about 15 minutes.   Loaded our own luggage and left.   I give our stay experience 2.5 out of 10.    If you’re paying this sort of money go stay at four seasons.  Better yet across the street is the Hyatt - stay there you will be much happier and you will spend much less!    Avoid this hotel!!MoreShow less</t>
+  </si>
+  <si>
+    <t>First off this place has great decor.  Lovey.  Nice smaller room but clean overall-  that’s about it!    We paid over $650.00 bucks for one night!   They can’t even get the basics right!!   The valet parking and check in was a joke!   Not one person asked us if they could take our luggage. Not one person opened a door with our hands full!   This GM should be fired!   We got to the room and it was fine.    No issues there.  The next morning we came down for breakfast and the comedy continued!   We sat down outside and ordered coffee and ice tea.  The ice tea came out only after I complained.   Then the coffee took another 10 minutes.  The excuse was they were brewing a fresh pot.   Really!   Coffee needs to come out right away and be fresh!   Hello this is not Days Inn!   Breakfast order took 30 minutes.   The waiter did not offer jam and butter for our English Muffin- this stuff is basic.   Like I said the GM should’ve fired!   We finished our 1 hour breakfast.    
+Then we went back up to our room gathered our bags and called down to have valet bring our car around.    The comedy continues.  The bozo on the phone tells us they don’t bring valet cars around but yet the dude parking our car told me call down for your car when you’re ready.    What a joke!   This same guy on the phone...First off this place has great decor.  Lovey.  Nice smaller room but clean overall-  that’s about it!    We paid over $650.00 bucks for one night!   They can’t even get the basics right!!   The valet parking and check in was a joke!   Not one person asked us if they could take our luggage. Not one person opened a door with our hands full!   This GM should be fired!   We got to the room and it was fine.    No issues there.  The next morning we came down for breakfast and the comedy continued!   We sat down outside and ordered coffee and ice tea.  The ice tea came out only after I complained.   Then the coffee took another 10 minutes.  The excuse was they were brewing a fresh pot.   Really!   Coffee needs to come out right away and be fresh!   Hello this is not Days Inn!   Breakfast order took 30 minutes.   The waiter did not offer jam and butter for our English Muffin- this stuff is basic.   Like I said the GM should’ve fired!   We finished our 1 hour breakfast.    Then we went back up to our room gathered our bags and called down to have valet bring our car around.    The comedy continues.  The bozo on the phone tells us they don’t bring valet cars around but yet the dude parking our car told me call down for your car when you’re ready.    What a joke!   This same guy on the phone should have asked if we needed help with our luggage.  Of course he did not ask us so down with our luggage we go!   We waited for our car about 15 minutes.   Loaded our own luggage and left.   I give our stay experience 2.5 out of 10.    If you’re paying this sort of money go stay at four seasons.  Better yet across the street is the Hyatt - stay there you will be much happier and you will spend much less!    Avoid this hotel!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12289100-r591198908-Le_Meridien_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>591198908</t>
+  </si>
+  <si>
+    <t>06/27/2018</t>
+  </si>
+  <si>
+    <t>Jewel of Downtown Denver</t>
+  </si>
+  <si>
+    <t>I have visited the Le Meridien hotel and it’s outlets on other occasions. The most recent event I attended benefited the James Beard Foundation which highlighted local chefs such as Max Mackissock, Blake Edmunds, Justin Brunson and Nikki Baldacci and of course their very own Executive Chef Tobias Burkhalter. Upon entering the hotel, the lobby was abuzz and I was kindly greeted by the staff who directed me up the gorgeous staircase to the event. From there I was welcomed by the reception staff with offerings of delicious passed hors d’oeuvres (the lobster + panna cotta were out of this world) and smooth refreshments prepared on-site by Chef Burkhalter and Beverage Manager Josh Tallent. All the guests were ushered into the finely set space for a fun presentation by these artists. Not your typical ‘square’ ballroom. The food and paired cocktails was a diverse and stimulating experience, the service was smooth and cheery. I noticed their executive chef even popped in the ballroom a few times before and after his presentation to greet guests or observe the flow of service. This is the absolute venue for a gala or social event to impress your guests! MoreShow less</t>
+  </si>
+  <si>
+    <t>Gosia S, Manager at Le Meridien Denver Downtown, responded to this reviewResponded June 29, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 29, 2018</t>
+  </si>
+  <si>
+    <t>I have visited the Le Meridien hotel and it’s outlets on other occasions. The most recent event I attended benefited the James Beard Foundation which highlighted local chefs such as Max Mackissock, Blake Edmunds, Justin Brunson and Nikki Baldacci and of course their very own Executive Chef Tobias Burkhalter. Upon entering the hotel, the lobby was abuzz and I was kindly greeted by the staff who directed me up the gorgeous staircase to the event. From there I was welcomed by the reception staff with offerings of delicious passed hors d’oeuvres (the lobster + panna cotta were out of this world) and smooth refreshments prepared on-site by Chef Burkhalter and Beverage Manager Josh Tallent. All the guests were ushered into the finely set space for a fun presentation by these artists. Not your typical ‘square’ ballroom. The food and paired cocktails was a diverse and stimulating experience, the service was smooth and cheery. I noticed their executive chef even popped in the ballroom a few times before and after his presentation to greet guests or observe the flow of service. This is the absolute venue for a gala or social event to impress your guests! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12289100-r590210666-Le_Meridien_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>590210666</t>
+  </si>
+  <si>
+    <t>06/24/2018</t>
+  </si>
+  <si>
+    <t>Awesome hotel!</t>
+  </si>
+  <si>
+    <t>I travel for business and spend around 100 nights a year in hotels.  This was my first stay at a Le Meridien, and I will definitely be back!The rooms are excellent.  Super modern, but not cheap looking like an Aloft.  I love the laminate wood look floor, you know the floors in your room are clean.  There are lots of great details throughout the room, for example the outlets have USB chargers, so it’s simple to charge your devices.  Showers are beautiful. All employees are nice and helpful; they seemed to truly enjoy their jobs.  If you’re looking for a beautiful modern hotel in Denver with a great location this is for you!The only negative I encountered is that Uber drivers seem to have no clue where the hotel is....every driver I used had trouble finding the place which was a bit frustrating, but not the hotels fault at all.  MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Gosia S, Manager at Le Meridien Denver Downtown, responded to this reviewResponded June 24, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 24, 2018</t>
+  </si>
+  <si>
+    <t>I travel for business and spend around 100 nights a year in hotels.  This was my first stay at a Le Meridien, and I will definitely be back!The rooms are excellent.  Super modern, but not cheap looking like an Aloft.  I love the laminate wood look floor, you know the floors in your room are clean.  There are lots of great details throughout the room, for example the outlets have USB chargers, so it’s simple to charge your devices.  Showers are beautiful. All employees are nice and helpful; they seemed to truly enjoy their jobs.  If you’re looking for a beautiful modern hotel in Denver with a great location this is for you!The only negative I encountered is that Uber drivers seem to have no clue where the hotel is....every driver I used had trouble finding the place which was a bit frustrating, but not the hotels fault at all.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12289100-r587038937-Le_Meridien_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>587038937</t>
+  </si>
+  <si>
+    <t>06/12/2018</t>
+  </si>
+  <si>
+    <t>Le Meridien same says it all</t>
+  </si>
+  <si>
+    <t>This is a new Meridien but retains the all the attributes of the upscale chain. I always look forward to staying here. It's new fresh and trendy sharing the building with AC Hotels so make sure you use the right elevators !Rooms as in most new properties tend to be on the smaller size but well furnished light and very comfortable. Rooms have a new style coffee machine in the room, sometimes a challenge to use.Great front desk staff very helpful and professional as you come to expect at a Meridien hotel.Highly recommendMoreShow less</t>
+  </si>
+  <si>
+    <t>Gosia S, Manager at Le Meridien Denver Downtown, responded to this reviewResponded June 13, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 13, 2018</t>
+  </si>
+  <si>
+    <t>This is a new Meridien but retains the all the attributes of the upscale chain. I always look forward to staying here. It's new fresh and trendy sharing the building with AC Hotels so make sure you use the right elevators !Rooms as in most new properties tend to be on the smaller size but well furnished light and very comfortable. Rooms have a new style coffee machine in the room, sometimes a challenge to use.Great front desk staff very helpful and professional as you come to expect at a Meridien hotel.Highly recommendMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12289100-r586840063-Le_Meridien_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>586840063</t>
+  </si>
+  <si>
+    <t>06/11/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Convenient, Chic, Clean, &amp; Cool! </t>
+  </si>
+  <si>
+    <t>@TravelNTings #TravelNTings As a Platinum SPG let first say Le Meridien Denver has one of the best breakfast and weekend brunches available as a valued member.  The rooms were very clean and we loved the showers! Only thing a little different was the sliding bathroom door that didn’t really give you all the privacy ... there was also an odor in the lobby for most of our stay that fortunately did not make it up to our rooms.  Also note that there isn’t any pool but a great rooftop; they will afford you Sheraton pool access a few blocks down the street however.  We would definitely stay here again. (AlsoValet is 45$ per night so be prepared if that is your usual preference)MoreShow less</t>
+  </si>
+  <si>
+    <t>@TravelNTings #TravelNTings As a Platinum SPG let first say Le Meridien Denver has one of the best breakfast and weekend brunches available as a valued member.  The rooms were very clean and we loved the showers! Only thing a little different was the sliding bathroom door that didn’t really give you all the privacy ... there was also an odor in the lobby for most of our stay that fortunately did not make it up to our rooms.  Also note that there isn’t any pool but a great rooftop; they will afford you Sheraton pool access a few blocks down the street however.  We would definitely stay here again. (AlsoValet is 45$ per night so be prepared if that is your usual preference)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12289100-r584454856-Le_Meridien_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>584454856</t>
+  </si>
+  <si>
+    <t>06/01/2018</t>
+  </si>
+  <si>
+    <t>A night in downtown Denver</t>
+  </si>
+  <si>
+    <t>Friendly and attentive staff, pet friendly, but I was taken aback by the large pet fee and expensive valet. The room was beautiful, room service menu was expansive, and hotel was within walking distance of the convention center and the 16th st mall.MoreShow less</t>
+  </si>
+  <si>
+    <t>Gosia S, Manager at Le Meridien Denver Downtown, responded to this reviewResponded June 2, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 2, 2018</t>
+  </si>
+  <si>
+    <t>Friendly and attentive staff, pet friendly, but I was taken aback by the large pet fee and expensive valet. The room was beautiful, room service menu was expansive, and hotel was within walking distance of the convention center and the 16th st mall.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12289100-r584420754-Le_Meridien_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>584420754</t>
+  </si>
+  <si>
+    <t>A Few Gripes</t>
+  </si>
+  <si>
+    <t>The location is excellent, only a block from the Denver Pavilions shopping center. I would much rather stay in this part of town than near the train station (although it's only a 20-minute walk or a quick 16th Avenue bus ride to LoDo). The hotel is new and chic with a very hip lobby and a great see-and-be-seen rooftop bar. Staff were wonderful - shout out to Logan, the nicest bellhop ever.The aforementioned gripes are with the room itself which had (1) no space next to the sink to put toiletries (2) an ugly brown, flimsy door to the bathroom that provided zero privacy (3) cheap linens that were just hung (not tucked) over the mattress (4) a light stitched blanket on the bed that clearly doesn't get washed between guests (don't get me started on how many hairs were on it) and (5) a narrow gap between the sink and shower stall that when you peered into it was horribly dirty.Although I love a modern hotel, cleanliness is more important. Next time in Denver I would stay somewhere else and just visit the Meridien's rooftop bar.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t>The location is excellent, only a block from the Denver Pavilions shopping center. I would much rather stay in this part of town than near the train station (although it's only a 20-minute walk or a quick 16th Avenue bus ride to LoDo). The hotel is new and chic with a very hip lobby and a great see-and-be-seen rooftop bar. Staff were wonderful - shout out to Logan, the nicest bellhop ever.The aforementioned gripes are with the room itself which had (1) no space next to the sink to put toiletries (2) an ugly brown, flimsy door to the bathroom that provided zero privacy (3) cheap linens that were just hung (not tucked) over the mattress (4) a light stitched blanket on the bed that clearly doesn't get washed between guests (don't get me started on how many hairs were on it) and (5) a narrow gap between the sink and shower stall that when you peered into it was horribly dirty.Although I love a modern hotel, cleanliness is more important. Next time in Denver I would stay somewhere else and just visit the Meridien's rooftop bar.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12289100-r583879760-Le_Meridien_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>583879760</t>
+  </si>
+  <si>
+    <t>05/30/2018</t>
+  </si>
+  <si>
+    <t>54Thirty is an amazing spot!</t>
+  </si>
+  <si>
+    <t>I was visiting Denver for the first time on a business trip. Lucky enough I was staying at AC Hotels (the other side of Le Meridien) and had the opportunity to experience their rooftop bar which it was amazing! Amazing views, great decor and ambiance. The food and drinks were also on point. The staff was also so attentive and just seemed happy to work there! What a great vibe! A special thanks to the Team that contributed to an amazing experience especially Liz one of the bartenders. She was fun, knowledgeable and has a great spirit and pride in her work. I'll be back!MoreShow less</t>
+  </si>
+  <si>
+    <t>I was visiting Denver for the first time on a business trip. Lucky enough I was staying at AC Hotels (the other side of Le Meridien) and had the opportunity to experience their rooftop bar which it was amazing! Amazing views, great decor and ambiance. The food and drinks were also on point. The staff was also so attentive and just seemed happy to work there! What a great vibe! A special thanks to the Team that contributed to an amazing experience especially Liz one of the bartenders. She was fun, knowledgeable and has a great spirit and pride in her work. I'll be back!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12289100-r583758435-Le_Meridien_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>583758435</t>
+  </si>
+  <si>
+    <t>05/29/2018</t>
+  </si>
+  <si>
+    <t>Great property but some challenges</t>
+  </si>
+  <si>
+    <t>Loved the location - close to CC. Came for IPW. Staff was great. Corine’s was awesome. Elevators had issues all week and on final departure, hot water didn’t work to shower before long FLT home. That sucked. Called front desk that said maintenance had reset and it should work within a minute, but that never happened. We had to take cold showers and that’s not what one ever expects or welcomes from a quality venue. MoreShow less</t>
+  </si>
+  <si>
+    <t>LMAC-HotelManager, Front Office Manager at Le Meridien Denver Downtown, responded to this reviewResponded May 30, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 30, 2018</t>
+  </si>
+  <si>
+    <t>Loved the location - close to CC. Came for IPW. Staff was great. Corine’s was awesome. Elevators had issues all week and on final departure, hot water didn’t work to shower before long FLT home. That sucked. Called front desk that said maintenance had reset and it should work within a minute, but that never happened. We had to take cold showers and that’s not what one ever expects or welcomes from a quality venue. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12289100-r583707448-Le_Meridien_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>583707448</t>
+  </si>
+  <si>
+    <t>IPW 2018 Convention</t>
+  </si>
+  <si>
+    <t>The Le Meridien Denver Downtown is a beautiful hotel located in the middle of downtown Denver. Centrally located, you can walk to the Convention Center and to many wonderful restaurants. It is two blocks from the famed 16th Street mall where there is plenty of shopping! The staff at this hotel were very friendly and accommodating.The rooftop bar did not disappoint with beautiful view and very comfortable seating! I would definitely recommend this hotel when staying in Denver! MoreShow less</t>
+  </si>
+  <si>
+    <t>The Le Meridien Denver Downtown is a beautiful hotel located in the middle of downtown Denver. Centrally located, you can walk to the Convention Center and to many wonderful restaurants. It is two blocks from the famed 16th Street mall where there is plenty of shopping! The staff at this hotel were very friendly and accommodating.The rooftop bar did not disappoint with beautiful view and very comfortable seating! I would definitely recommend this hotel when staying in Denver! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12289100-r583571499-Le_Meridien_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>583571499</t>
+  </si>
+  <si>
+    <t>Ipw 2018</t>
+  </si>
+  <si>
+    <t>Great stay! The Hotel and team were excellent all around from the check in to grabbing meals/drinks at Corinne (the restaurant). Lexi checked me in and was super warm/efficient! Hope to be back for the next trip to Denver. MoreShow less</t>
+  </si>
+  <si>
+    <t>Great stay! The Hotel and team were excellent all around from the check in to grabbing meals/drinks at Corinne (the restaurant). Lexi checked me in and was super warm/efficient! Hope to be back for the next trip to Denver. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12289100-r582086310-Le_Meridien_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>582086310</t>
+  </si>
+  <si>
+    <t>05/22/2018</t>
+  </si>
+  <si>
+    <t>The Lobbyist team are amazing..</t>
+  </si>
+  <si>
+    <t>Spent 3 nights at Le Meridien...team for breakfast amazing..The Lobbyist team - Rob and Ginju- absolutely amazing...such hospitality both nights in their area...fab service, great recommendations exactly what you want from a lobby bar team. MoreShow less</t>
+  </si>
+  <si>
+    <t>Gosia S, Manager at Le Meridien Denver Downtown, responded to this reviewResponded May 26, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 26, 2018</t>
+  </si>
+  <si>
+    <t>Spent 3 nights at Le Meridien...team for breakfast amazing..The Lobbyist team - Rob and Ginju- absolutely amazing...such hospitality both nights in their area...fab service, great recommendations exactly what you want from a lobby bar team. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12289100-r581970420-Le_Meridien_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>581970420</t>
+  </si>
+  <si>
+    <t>Nice hotel</t>
+  </si>
+  <si>
+    <t>Great hotel and staff. Highly recommended. Close to pedestrian mall and other downtown areas. Don’t miss the rooftop bar which is the highest in the city. It reminds me of a favorite in mid town Manhattan. MoreShow less</t>
+  </si>
+  <si>
+    <t>Great hotel and staff. Highly recommended. Close to pedestrian mall and other downtown areas. Don’t miss the rooftop bar which is the highest in the city. It reminds me of a favorite in mid town Manhattan. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12289100-r581833962-Le_Meridien_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>581833962</t>
+  </si>
+  <si>
+    <t>05/21/2018</t>
+  </si>
+  <si>
+    <t>No hot water</t>
+  </si>
+  <si>
+    <t>The morning of my departure I tried to shower but no hot water. The desk informed me that engineering was aware of the problem and was working on it. No doubt that was comforting to others (who didnt have early morning flights).MoreShow less</t>
+  </si>
+  <si>
+    <t>Niels V, General Manager at Le Meridien Denver Downtown, responded to this reviewResponded May 22, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 22, 2018</t>
+  </si>
+  <si>
+    <t>The morning of my departure I tried to shower but no hot water. The desk informed me that engineering was aware of the problem and was working on it. No doubt that was comforting to others (who didnt have early morning flights).More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12289100-r580581259-Le_Meridien_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>580581259</t>
+  </si>
+  <si>
+    <t>05/16/2018</t>
+  </si>
+  <si>
+    <t>Disappointed</t>
+  </si>
+  <si>
+    <t>The pictures and promotions for this hotel were fabulous. The Lobby and Rooftop bar were exquisite. The rooms, however, were very small. I specifically asked for a Mountain View (as advertised) and was told at check in that the room type I selected (Deluxe Classic two queen beds) didn’t have Mountain View’s. The feel of the room was European Chic and the lack of amenities was evident. The coffee maker was an Espresso machine that produced about a 1/4 of a cup of coffee. Had to order a pot of coffee every day for $7.  The sink was exceptionally small - no where to put cosmetics or personal items. Two small drawers in the room which was meant for two people. When I asked for a shower cap (no bathtub in room) they forgot to deliver it. When I asked for ice water, I got a bottle of room temp water and so I asked for some ice and they brought me a bag of solid ice - no cubes and not useful. Rooms were so small that there really was nowhere to put room service tray either. I am sorry to say I was very disappointed. MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Gosia S, Manager at Le Meridien Denver Downtown, responded to this reviewResponded May 16, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 16, 2018</t>
+  </si>
+  <si>
+    <t>The pictures and promotions for this hotel were fabulous. The Lobby and Rooftop bar were exquisite. The rooms, however, were very small. I specifically asked for a Mountain View (as advertised) and was told at check in that the room type I selected (Deluxe Classic two queen beds) didn’t have Mountain View’s. The feel of the room was European Chic and the lack of amenities was evident. The coffee maker was an Espresso machine that produced about a 1/4 of a cup of coffee. Had to order a pot of coffee every day for $7.  The sink was exceptionally small - no where to put cosmetics or personal items. Two small drawers in the room which was meant for two people. When I asked for a shower cap (no bathtub in room) they forgot to deliver it. When I asked for ice water, I got a bottle of room temp water and so I asked for some ice and they brought me a bag of solid ice - no cubes and not useful. Rooms were so small that there really was nowhere to put room service tray either. I am sorry to say I was very disappointed. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12289100-r580531451-Le_Meridien_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>580531451</t>
+  </si>
+  <si>
+    <t>05/15/2018</t>
+  </si>
+  <si>
+    <t>Beautiful Hotel - Did Not Exceed Expectations</t>
+  </si>
+  <si>
+    <t>A friend and I stayed at Le Meridien a few weeks ago and were underwhelmed by our experience. While the hotel is in a very convenient location and in good condition, the service was subpar for this upper-upscale brand. Though we asked, we did not receive our 8AM wake up call. Additionally, when we asked for an extra set of towels, the lady who brought them up was out-of-uniform, on the phone, and barely stopped before running off. All of the staff were very friendly and accommodating, but did not exceed our expectations. However, we had drinks on the rooftop bar, 54Thirty, and the view was great. The vibe of the whole hotel is very young, modern, and fun. Overall, the experience was memorable but we're not sure if we would stay here again for the same price.MoreShow less</t>
+  </si>
+  <si>
+    <t>A friend and I stayed at Le Meridien a few weeks ago and were underwhelmed by our experience. While the hotel is in a very convenient location and in good condition, the service was subpar for this upper-upscale brand. Though we asked, we did not receive our 8AM wake up call. Additionally, when we asked for an extra set of towels, the lady who brought them up was out-of-uniform, on the phone, and barely stopped before running off. All of the staff were very friendly and accommodating, but did not exceed our expectations. However, we had drinks on the rooftop bar, 54Thirty, and the view was great. The vibe of the whole hotel is very young, modern, and fun. Overall, the experience was memorable but we're not sure if we would stay here again for the same price.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12289100-r579352525-Le_Meridien_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>579352525</t>
+  </si>
+  <si>
+    <t>05/10/2018</t>
+  </si>
+  <si>
+    <t>Late night</t>
+  </si>
+  <si>
+    <t>This is a relatively new hotel and the staff is well trained. It has very interesting architecture. The rooms are clean and spacious. The only reason I did not give this hotel five stars is because the bathroom door made a lot of noise. Also, they charged $5 for a bottle of water. That should have been free. Overall very nice hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>Gosia S, Manager at Le Meridien Denver Downtown, responded to this reviewResponded May 11, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 11, 2018</t>
+  </si>
+  <si>
+    <t>This is a relatively new hotel and the staff is well trained. It has very interesting architecture. The rooms are clean and spacious. The only reason I did not give this hotel five stars is because the bathroom door made a lot of noise. Also, they charged $5 for a bottle of water. That should have been free. Overall very nice hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12289100-r577839389-Le_Meridien_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>577839389</t>
+  </si>
+  <si>
+    <t>05/04/2018</t>
+  </si>
+  <si>
+    <t>Excellent Meeting Space</t>
+  </si>
+  <si>
+    <t>I'm a meeting planner and selected this property for our annual meeting in April.  The meeting space was perfect.  The AV guys did an excellent job for us.  I can not rave enough about the staff...on every level.  I heard similar comments from the meeting attendees about the staff, so I know it wasn't just me.The location is great and the vibe is fabulous.Stay here.  You'll be happy.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t>Gosia S, Manager at Le Meridien Denver Downtown, responded to this reviewResponded May 6, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 6, 2018</t>
+  </si>
+  <si>
+    <t>I'm a meeting planner and selected this property for our annual meeting in April.  The meeting space was perfect.  The AV guys did an excellent job for us.  I can not rave enough about the staff...on every level.  I heard similar comments from the meeting attendees about the staff, so I know it wasn't just me.The location is great and the vibe is fabulous.Stay here.  You'll be happy.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12289100-r577837728-Le_Meridien_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>577837728</t>
+  </si>
+  <si>
+    <t>Relatively new and can't beat the location</t>
+  </si>
+  <si>
+    <t>Was in town for a convention and this hotel was the ideal spot for that.  Opened only a few months ago, it exudes style and it's great to stay in a place that is relatively new, but has had the kinks worked out.  Rooftop bar as many have stated is a draw.  The lobby bar area is great for coffee and tons of hipsters on their laptops hanging out.  The gym is spacious with very good cardio and strength training equipment - could probably use a few more free weights and other accessories (bands, pads, chairs).  Valet were super helpful and Ubers largely knew where the hotel was (had 1 guy struggle to pick me up for some unknown reason).  The one curve ball is the joint Le Meridien-AC Hotels by Marriott thing.  Got key cards to both b/c apparently Le Meridien keys weren't working as well as the AC Hotels one.But I would have no problem recommending this place wholeheartedly.MoreShow less</t>
+  </si>
+  <si>
+    <t>Was in town for a convention and this hotel was the ideal spot for that.  Opened only a few months ago, it exudes style and it's great to stay in a place that is relatively new, but has had the kinks worked out.  Rooftop bar as many have stated is a draw.  The lobby bar area is great for coffee and tons of hipsters on their laptops hanging out.  The gym is spacious with very good cardio and strength training equipment - could probably use a few more free weights and other accessories (bands, pads, chairs).  Valet were super helpful and Ubers largely knew where the hotel was (had 1 guy struggle to pick me up for some unknown reason).  The one curve ball is the joint Le Meridien-AC Hotels by Marriott thing.  Got key cards to both b/c apparently Le Meridien keys weren't working as well as the AC Hotels one.But I would have no problem recommending this place wholeheartedly.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12289100-r577818175-Le_Meridien_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>577818175</t>
+  </si>
+  <si>
+    <t>Love it!</t>
+  </si>
+  <si>
+    <t>Beautiful hotel with a European style. Extremely clean and located in the heart of the city. Tons ti if within walking distance. The only downside was not being able to go to the rooftop bar due to inclement weather. I would definitely stay at that hotel again. I just hit home yesterday and would love to go back. The city is very clean too. MoreShow less</t>
+  </si>
+  <si>
+    <t>Gosia S, Manager at Le Meridien Denver Downtown, responded to this reviewResponded May 5, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 5, 2018</t>
+  </si>
+  <si>
+    <t>Beautiful hotel with a European style. Extremely clean and located in the heart of the city. Tons ti if within walking distance. The only downside was not being able to go to the rooftop bar due to inclement weather. I would definitely stay at that hotel again. I just hit home yesterday and would love to go back. The city is very clean too. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12289100-r576813533-Le_Meridien_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>576813533</t>
+  </si>
+  <si>
+    <t>04/30/2018</t>
+  </si>
+  <si>
+    <t>Cool Hotel in Good Location</t>
+  </si>
+  <si>
+    <t>Great hotel in good location. Room was nice and floor-to-ceiling windows were great. Bathroom is kind of 'open' so be prepared for that. Shower and products were great. Lobby was cool with restaurant and coffee bar. Walked to shopping, transportation and restaurants.MoreShow less</t>
+  </si>
+  <si>
+    <t>Gosia S, Manager at Le Meridien Denver Downtown, responded to this reviewResponded April 30, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 30, 2018</t>
+  </si>
+  <si>
+    <t>Great hotel in good location. Room was nice and floor-to-ceiling windows were great. Bathroom is kind of 'open' so be prepared for that. Shower and products were great. Lobby was cool with restaurant and coffee bar. Walked to shopping, transportation and restaurants.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12289100-r576811540-Le_Meridien_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>576811540</t>
+  </si>
+  <si>
+    <t>Great Property and Staff</t>
+  </si>
+  <si>
+    <t>I stayed at this property last week and I had a wonderful experience. The property was really nice and the staff was very friendly. I wanted to point out a few people who I interacted with who were especially great.
+Henry (Engineering)
+One morning I tried to open the door to the bathroom area and the door was kind of stuck. I used a little bit of strength to pop the door open and the beam above the door came flying off and nearly hit me in the head. There were exposed nails in the beam and I'm so grateful that it missed me. I called the operator and they sent Henry up. He was extremely nice and efficient with fixing the issue and suggested ways in which the hotel can make it up to me. He ended up offering my SPG points which I was really happy about. Again, really nice guy. 
+Ian (Front Desk)
+Ian checked me in and he was really friendly and resourceful. The check in process was very easy and quick. He seemed to always remember me during the 4 days I was there and it made it feel like a homely place. 
+Mark (Engineering/Security - British gentleman)
+My heat wasn't working in the room so the operator sent Mark up. He was really friendly and I had a really nice conversation with him. He had also spent some time in LA so we had...I stayed at this property last week and I had a wonderful experience. The property was really nice and the staff was very friendly. I wanted to point out a few people who I interacted with who were especially great.Henry (Engineering)One morning I tried to open the door to the bathroom area and the door was kind of stuck. I used a little bit of strength to pop the door open and the beam above the door came flying off and nearly hit me in the head. There were exposed nails in the beam and I'm so grateful that it missed me. I called the operator and they sent Henry up. He was extremely nice and efficient with fixing the issue and suggested ways in which the hotel can make it up to me. He ended up offering my SPG points which I was really happy about. Again, really nice guy. Ian (Front Desk)Ian checked me in and he was really friendly and resourceful. The check in process was very easy and quick. He seemed to always remember me during the 4 days I was there and it made it feel like a homely place. Mark (Engineering/Security - British gentleman)My heat wasn't working in the room so the operator sent Mark up. He was really friendly and I had a really nice conversation with him. He had also spent some time in LA so we had a lot to talk about. He was very efficient and fixed the heat quickly. I saw him again a day or two later at the rooftop bar and he recognized me and we spoke for a little while. Again, this recognition really made my stay feel homely. Gosia (Front Desk)After the bathroom incident (refer to incident under Henry), I called the front desk to ask a question and Gosia picked up. She apologized for what had happened and confirmed that they will be adding SPG points to my account to make up for the incident. She was really friendly over the phone. Overall, I had a really nice stay. I know this is a newer property and it really felt like a home away from home. I just want to reiterate that the staff is really great. I know I mentioned those few people above, but every interaction I had was excellent. The operator was always so friendly and the valet gentlemen always greeted me as I walked in and out. I would love to stay here again in the future!MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed at this property last week and I had a wonderful experience. The property was really nice and the staff was very friendly. I wanted to point out a few people who I interacted with who were especially great.
+Henry (Engineering)
+One morning I tried to open the door to the bathroom area and the door was kind of stuck. I used a little bit of strength to pop the door open and the beam above the door came flying off and nearly hit me in the head. There were exposed nails in the beam and I'm so grateful that it missed me. I called the operator and they sent Henry up. He was extremely nice and efficient with fixing the issue and suggested ways in which the hotel can make it up to me. He ended up offering my SPG points which I was really happy about. Again, really nice guy. 
+Ian (Front Desk)
+Ian checked me in and he was really friendly and resourceful. The check in process was very easy and quick. He seemed to always remember me during the 4 days I was there and it made it feel like a homely place. 
+Mark (Engineering/Security - British gentleman)
+My heat wasn't working in the room so the operator sent Mark up. He was really friendly and I had a really nice conversation with him. He had also spent some time in LA so we had...I stayed at this property last week and I had a wonderful experience. The property was really nice and the staff was very friendly. I wanted to point out a few people who I interacted with who were especially great.Henry (Engineering)One morning I tried to open the door to the bathroom area and the door was kind of stuck. I used a little bit of strength to pop the door open and the beam above the door came flying off and nearly hit me in the head. There were exposed nails in the beam and I'm so grateful that it missed me. I called the operator and they sent Henry up. He was extremely nice and efficient with fixing the issue and suggested ways in which the hotel can make it up to me. He ended up offering my SPG points which I was really happy about. Again, really nice guy. Ian (Front Desk)Ian checked me in and he was really friendly and resourceful. The check in process was very easy and quick. He seemed to always remember me during the 4 days I was there and it made it feel like a homely place. Mark (Engineering/Security - British gentleman)My heat wasn't working in the room so the operator sent Mark up. He was really friendly and I had a really nice conversation with him. He had also spent some time in LA so we had a lot to talk about. He was very efficient and fixed the heat quickly. I saw him again a day or two later at the rooftop bar and he recognized me and we spoke for a little while. Again, this recognition really made my stay feel homely. Gosia (Front Desk)After the bathroom incident (refer to incident under Henry), I called the front desk to ask a question and Gosia picked up. She apologized for what had happened and confirmed that they will be adding SPG points to my account to make up for the incident. She was really friendly over the phone. Overall, I had a really nice stay. I know this is a newer property and it really felt like a home away from home. I just want to reiterate that the staff is really great. I know I mentioned those few people above, but every interaction I had was excellent. The operator was always so friendly and the valet gentlemen always greeted me as I walked in and out. I would love to stay here again in the future!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12289100-r576454649-Le_Meridien_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>576454649</t>
+  </si>
+  <si>
+    <t>04/29/2018</t>
+  </si>
+  <si>
+    <t>Gorgeous hotel</t>
+  </si>
+  <si>
+    <t>Le Meridien is a beautiful hotel and we had an amazing stay. The decor is beautiful and the room very comfortable. You are in close proximity to shopping, restaurants and attractions. Would recommend to anyone coming to Denver.MoreShow less</t>
+  </si>
+  <si>
+    <t>Gosia S, Manager at Le Meridien Denver Downtown, responded to this reviewResponded April 29, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 29, 2018</t>
+  </si>
+  <si>
+    <t>Le Meridien is a beautiful hotel and we had an amazing stay. The decor is beautiful and the room very comfortable. You are in close proximity to shopping, restaurants and attractions. Would recommend to anyone coming to Denver.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12289100-r576028576-Le_Meridien_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>576028576</t>
+  </si>
+  <si>
+    <t>04/27/2018</t>
+  </si>
+  <si>
+    <t>Great Hotel</t>
+  </si>
+  <si>
+    <t>Spent three nights at hotel.  Staff was very pleasant, rooms were clean and comfortable.  Loved the large windows and the use of space.  The rooftop bar 54thirty was a great place for evenings drinks and the restaurant Corinne had excellent food.  Would absolutely stay again.  MoreShow less</t>
+  </si>
+  <si>
+    <t>Gosia S, Manager at Le Meridien Denver Downtown, responded to this reviewResponded April 28, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 28, 2018</t>
+  </si>
+  <si>
+    <t>Spent three nights at hotel.  Staff was very pleasant, rooms were clean and comfortable.  Loved the large windows and the use of space.  The rooftop bar 54thirty was a great place for evenings drinks and the restaurant Corinne had excellent food.  Would absolutely stay again.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12289100-r576015449-Le_Meridien_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>576015449</t>
+  </si>
+  <si>
+    <t>Modern clean and pretty hotel. Great location. Very friendly and helpful staff. Small rooms, minimal storage and not sound proof. We were able to hear all hall noise, next door rooms and lots of street noise. MoreShow less</t>
+  </si>
+  <si>
+    <t>Modern clean and pretty hotel. Great location. Very friendly and helpful staff. Small rooms, minimal storage and not sound proof. We were able to hear all hall noise, next door rooms and lots of street noise. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12289100-r575643405-Le_Meridien_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>575643405</t>
+  </si>
+  <si>
+    <t>04/25/2018</t>
+  </si>
+  <si>
+    <t>Business Adventures</t>
+  </si>
+  <si>
+    <t>I traveled to Denver for a conference so I was staying at this property for over a week. The staff was very friendly and helpful, including adjusting my 40 reservations I was managing for the week. The free bikes to use around town was a nice European touch and the food and beverages were good too. The vibe of the hotel was modern and the rooms were clean and fresh. The rooftop bar is awesome. My only recommendation would be to have mini fridges since there's so many excellent places to eat around town.MoreShow less</t>
+  </si>
+  <si>
+    <t>Gosia S, Manager at Le Meridien Denver Downtown, responded to this reviewResponded April 25, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 25, 2018</t>
+  </si>
+  <si>
+    <t>I traveled to Denver for a conference so I was staying at this property for over a week. The staff was very friendly and helpful, including adjusting my 40 reservations I was managing for the week. The free bikes to use around town was a nice European touch and the food and beverages were good too. The vibe of the hotel was modern and the rooms were clean and fresh. The rooftop bar is awesome. My only recommendation would be to have mini fridges since there's so many excellent places to eat around town.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12289100-r574426035-Le_Meridien_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>574426035</t>
+  </si>
+  <si>
+    <t>04/19/2018</t>
+  </si>
+  <si>
+    <t>Their customer service is Amazing!</t>
+  </si>
+  <si>
+    <t>We decided to stay at this hotel for a sisters trip both coming from different destinations on the east coast. We arrived to the hotel early with little hopes that they would have a room ready. When we checked in Jennavieve was so polite and amazing. She offered us a room and went above and beyond to answer my ton of questions regarding what to do locally. When you have someone who provides amazing customer service it worth mentioning.We are very pleased with our experience with Jennavieve and we will definitely be returning. MoreShow less</t>
+  </si>
+  <si>
+    <t>Gosia S, Manager at Le Meridien Denver Downtown, responded to this reviewResponded April 19, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 19, 2018</t>
+  </si>
+  <si>
+    <t>We decided to stay at this hotel for a sisters trip both coming from different destinations on the east coast. We arrived to the hotel early with little hopes that they would have a room ready. When we checked in Jennavieve was so polite and amazing. She offered us a room and went above and beyond to answer my ton of questions regarding what to do locally. When you have someone who provides amazing customer service it worth mentioning.We are very pleased with our experience with Jennavieve and we will definitely be returning. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12289100-r574332845-Le_Meridien_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>574332845</t>
+  </si>
+  <si>
+    <t>Incredible</t>
+  </si>
+  <si>
+    <t>The hotel was phenomenal.  The staff was not only friendly but purely hospitable.  It is very rare you receive this type of customer service anymore, very impressive!  The rooms were clean and well designed.  MoreShow less</t>
+  </si>
+  <si>
+    <t>The hotel was phenomenal.  The staff was not only friendly but purely hospitable.  It is very rare you receive this type of customer service anymore, very impressive!  The rooms were clean and well designed.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12289100-r573840379-Le_Meridien_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>573840379</t>
+  </si>
+  <si>
+    <t>04/16/2018</t>
+  </si>
+  <si>
+    <t>Le Meridian Denver</t>
+  </si>
+  <si>
+    <t>This Hotel was great! The staff was fabulous, from the front desk to the wait staff at the restaurant-Corrine’s! Food was great! We couldn’t have asked for a better get away! Very stress free and relaxing—- and Clean!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Gosia S, Manager at Le Meridien Denver Downtown, responded to this reviewResponded April 17, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 17, 2018</t>
+  </si>
+  <si>
+    <t>This Hotel was great! The staff was fabulous, from the front desk to the wait staff at the restaurant-Corrine’s! Food was great! We couldn’t have asked for a better get away! Very stress free and relaxing—- and Clean!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12289100-r573506154-Le_Meridien_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>573506154</t>
+  </si>
+  <si>
+    <t>04/15/2018</t>
+  </si>
+  <si>
+    <t>Excellent.</t>
+  </si>
+  <si>
+    <t>This hotel exceeded expectations in all areas!  The hotel is in a great location right between the convention center and the 16th street mall.  You will have a wide variety of choices for restaurants and shopping within walking distance. Our room was beautiful, clean and comfortable. It was generously sized for a city hotel room.  The bath products were high end and they were outstanding!   We had a package that included breakfast, which was delicious.We had one dinner in the restaurant, which was amazing.  The meal was delicious, and the service was excellent.  The roof top bar had not opened for the season yet, but the weather was gorgeous and they allowed us to bring cocktails from the downstairs bar up to the top and we enjoyed the sunsets.  Once the sun went down, the manager, appeared with blankets for our laps as we enjoyed the rest of the evening under the stars with our beverages!   The front desk staff were very attentive and extremely helpful and kind. I will definitely return to this hotel the next time I am staying in Denver!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>Gosia S, Manager at Le Meridien Denver Downtown, responded to this reviewResponded April 15, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 15, 2018</t>
+  </si>
+  <si>
+    <t>This hotel exceeded expectations in all areas!  The hotel is in a great location right between the convention center and the 16th street mall.  You will have a wide variety of choices for restaurants and shopping within walking distance. Our room was beautiful, clean and comfortable. It was generously sized for a city hotel room.  The bath products were high end and they were outstanding!   We had a package that included breakfast, which was delicious.We had one dinner in the restaurant, which was amazing.  The meal was delicious, and the service was excellent.  The roof top bar had not opened for the season yet, but the weather was gorgeous and they allowed us to bring cocktails from the downstairs bar up to the top and we enjoyed the sunsets.  Once the sun went down, the manager, appeared with blankets for our laps as we enjoyed the rest of the evening under the stars with our beverages!   The front desk staff were very attentive and extremely helpful and kind. I will definitely return to this hotel the next time I am staying in Denver!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12289100-r573449170-Le_Meridien_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>573449170</t>
+  </si>
+  <si>
+    <t>Beautiful Hotel!</t>
+  </si>
+  <si>
+    <t>We are SPG members and generally stay at Westin's, but the Downtown Westin is very outdated and not up to my comfort standards. We decided to try out a new hotel, The Le Meridien Downtown Denver. Everything was perfect, from the moment we walked in to the moment we left. The valet attendants are directly outside and will assist you with opening the door when you enter and exit. The front desk attendants are always friendly and professional. The decor is absolutely gorgeous. We stayed for a full week and ate at the adjoining restaurant, Corrine, several times for lunch and dinner. Phenomenal food that won't break the bank. Overall the room is a little small, but I found it to be very comfortable. Everything was very clean and our room on the 8th floor was surprisingly quiet. It is downtown and you will have the normal train/ambulance/drunk people noise but it never kept me from sleeping. It's off of the main MoreShow less</t>
+  </si>
+  <si>
+    <t>We are SPG members and generally stay at Westin's, but the Downtown Westin is very outdated and not up to my comfort standards. We decided to try out a new hotel, The Le Meridien Downtown Denver. Everything was perfect, from the moment we walked in to the moment we left. The valet attendants are directly outside and will assist you with opening the door when you enter and exit. The front desk attendants are always friendly and professional. The decor is absolutely gorgeous. We stayed for a full week and ate at the adjoining restaurant, Corrine, several times for lunch and dinner. Phenomenal food that won't break the bank. Overall the room is a little small, but I found it to be very comfortable. Everything was very clean and our room on the 8th floor was surprisingly quiet. It is downtown and you will have the normal train/ambulance/drunk people noise but it never kept me from sleeping. It's off of the main More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12289100-r573082783-Le_Meridien_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>573082783</t>
+  </si>
+  <si>
+    <t>04/13/2018</t>
+  </si>
+  <si>
+    <t>New and very nice hotel in central Denver</t>
+  </si>
+  <si>
+    <t>Perfect location, meters from the Convention center.Small rooms (at least the one I had), but very good interior, no carpets (thanks!!), Scandinavian modern style.Clean and nice.Service just super.Real value for money.Try the rooftop, super view to the mountains.Will come back to the same place, absolutely.MoreShow less</t>
+  </si>
+  <si>
+    <t>Gosia S, Manager at Le Meridien Denver Downtown, responded to this reviewResponded April 13, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 13, 2018</t>
+  </si>
+  <si>
+    <t>Perfect location, meters from the Convention center.Small rooms (at least the one I had), but very good interior, no carpets (thanks!!), Scandinavian modern style.Clean and nice.Service just super.Real value for money.Try the rooftop, super view to the mountains.Will come back to the same place, absolutely.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12289100-r571949038-Le_Meridien_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>571949038</t>
+  </si>
+  <si>
+    <t>04/08/2018</t>
+  </si>
+  <si>
+    <t>Perfectly Appointed Rooms and Exceptional Location</t>
+  </si>
+  <si>
+    <t>I cannot say enough about this beautiful property.  The rooms are smaller by design (as are most new properties in the downtown market), however the space is well designed and the room is perfectly appointed with modern and functional furnishings.  Cheers to an in-room espresso maker- FINALLY no cheap coffee.  The staff was warm and welcoming with every interaction.MoreShow less</t>
+  </si>
+  <si>
+    <t>Gosia S, Manager at Le Meridien Denver Downtown, responded to this reviewResponded April 12, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 12, 2018</t>
+  </si>
+  <si>
+    <t>I cannot say enough about this beautiful property.  The rooms are smaller by design (as are most new properties in the downtown market), however the space is well designed and the room is perfectly appointed with modern and functional furnishings.  Cheers to an in-room espresso maker- FINALLY no cheap coffee.  The staff was warm and welcoming with every interaction.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12289100-r571374475-Le_Meridien_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>571374475</t>
+  </si>
+  <si>
+    <t>04/05/2018</t>
+  </si>
+  <si>
+    <t>Le Meridien Denver  Great stay!</t>
+  </si>
+  <si>
+    <t>The small boutique hotel is in a great location, great staff that will go the extra mile to make your stay perfect. Rooms are small, but well appointed.  Only negative would be the light rail that is in front of hotel can be noisy.  Request a room on the back side of the hotel.  JennaVieve and her staff are wonderful at making sure you are well tended, no matter the request!  Love the valet parking, and Corrine restaurant is a great space, staff is very good and food is wonderful!  Can't wait to stay there on next trip through Denver!  Thanks, to the staff for a wonderful visit! MoreShow less</t>
+  </si>
+  <si>
+    <t>Gosia S, Manager at Le Meridien Denver Downtown, responded to this reviewResponded April 5, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 5, 2018</t>
+  </si>
+  <si>
+    <t>The small boutique hotel is in a great location, great staff that will go the extra mile to make your stay perfect. Rooms are small, but well appointed.  Only negative would be the light rail that is in front of hotel can be noisy.  Request a room on the back side of the hotel.  JennaVieve and her staff are wonderful at making sure you are well tended, no matter the request!  Love the valet parking, and Corrine restaurant is a great space, staff is very good and food is wonderful!  Can't wait to stay there on next trip through Denver!  Thanks, to the staff for a wonderful visit! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12289100-r571159066-Le_Meridien_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>571159066</t>
+  </si>
+  <si>
+    <t>04/04/2018</t>
+  </si>
+  <si>
+    <t>Nice room... Great hotel restaurant and Customer Service</t>
+  </si>
+  <si>
+    <t>We stayed again at this trendy downtown hotel in Denver over the Passover long weekend. The room was a connector 1926 and 1928. We had more than ample space for our grandson in the other room with two bathrooms. The view was not good. Also there are no dressers. But everything else was super - the housekeeping, the bathroom size and the toiletries. The Corinne restaurant was very good. Customer Service in general was very good.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed again at this trendy downtown hotel in Denver over the Passover long weekend. The room was a connector 1926 and 1928. We had more than ample space for our grandson in the other room with two bathrooms. The view was not good. Also there are no dressers. But everything else was super - the housekeeping, the bathroom size and the toiletries. The Corinne restaurant was very good. Customer Service in general was very good.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12289100-r570279592-Le_Meridien_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>570279592</t>
+  </si>
+  <si>
+    <t>04/01/2018</t>
+  </si>
+  <si>
+    <t>Great staycation!</t>
+  </si>
+  <si>
+    <t>Had a great time at le meridian, Steffany and Ian made us feel very wlecome with a nice room selectionselection a nice welcome treat.  Can't wait for the roof top bar to be open in April we'll be back for some more fun. MoreShow less</t>
+  </si>
+  <si>
+    <t>Gosia S, Manager at Le Meridien Denver Downtown, responded to this reviewResponded April 3, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 3, 2018</t>
+  </si>
+  <si>
+    <t>Had a great time at le meridian, Steffany and Ian made us feel very wlecome with a nice room selectionselection a nice welcome treat.  Can't wait for the roof top bar to be open in April we'll be back for some more fun. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12289100-r569300804-Le_Meridien_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>569300804</t>
+  </si>
+  <si>
+    <t>03/28/2018</t>
+  </si>
+  <si>
+    <t>European Style Affordable Price</t>
+  </si>
+  <si>
+    <t>This is a fairly new hotel that I book due to it’s close proximity to the Colorado Convention Center. It was the least expensive in the vicinity, but there’s nothing cheap about it!From the cozy and inviting lobby to the white walls and modern furnishings, this place feels clean without being barren.I would definitely stay here again the next time I’m in Denver!MoreShow less</t>
+  </si>
+  <si>
+    <t>Gosia S, Manager at Le Meridien Denver Downtown, responded to this reviewResponded March 29, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 29, 2018</t>
+  </si>
+  <si>
+    <t>This is a fairly new hotel that I book due to it’s close proximity to the Colorado Convention Center. It was the least expensive in the vicinity, but there’s nothing cheap about it!From the cozy and inviting lobby to the white walls and modern furnishings, this place feels clean without being barren.I would definitely stay here again the next time I’m in Denver!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12289100-r568861904-Le_Meridien_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>568861904</t>
+  </si>
+  <si>
+    <t>03/26/2018</t>
+  </si>
+  <si>
+    <t>Nice new hotel</t>
+  </si>
+  <si>
+    <t>Trendy Le Meridien hotel in the heart of downtown Denver.  Lobby was lively and sharp lobby, including the restaurant which had a solid breakfast.  Rooms were cool and well appointed and comfortable - again everything brand new.  Gym was well appointed and new.  Rooftop bar was not open but I saw it from the gym and it looked pretty cool.  MoreShow less</t>
+  </si>
+  <si>
+    <t>Trendy Le Meridien hotel in the heart of downtown Denver.  Lobby was lively and sharp lobby, including the restaurant which had a solid breakfast.  Rooms were cool and well appointed and comfortable - again everything brand new.  Gym was well appointed and new.  Rooftop bar was not open but I saw it from the gym and it looked pretty cool.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12289100-r567772073-Le_Meridien_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>567772073</t>
+  </si>
+  <si>
+    <t>03/20/2018</t>
+  </si>
+  <si>
+    <t>Amazing Hotel, even better service!</t>
+  </si>
+  <si>
+    <t>Every person I interacted with at this hotel was amazing! So kind and so helpful no matter the situation! I would stay here 100 times over! and the location is unbeatable. The rooms are cozy and comfortable and the coffee and breakfast was delicious! STAY HERE you won't regret it.MoreShow less</t>
+  </si>
+  <si>
+    <t>Lexi G, Front Office Manager at Le Meridien Denver Downtown, responded to this reviewResponded March 25, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 25, 2018</t>
+  </si>
+  <si>
+    <t>Every person I interacted with at this hotel was amazing! So kind and so helpful no matter the situation! I would stay here 100 times over! and the location is unbeatable. The rooms are cozy and comfortable and the coffee and breakfast was delicious! STAY HERE you won't regret it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12289100-r567766234-Le_Meridien_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>567766234</t>
+  </si>
+  <si>
+    <t>Beautiful Design, Disappointing Housekeeping</t>
+  </si>
+  <si>
+    <t>Location: This is perhaps the best selling feature of this hotel. Conveniently located approximately one to two blocks away from the 16th Street Mall, and just a few more to Larimer Square, everything attractive about Downtown Denver is within walking distance of the front door. Restaurants, stores, and live music fill the nearby streets. 
+Service: The service at the Le Meridien is what you would expect a "basic" or "generic" four-star hotel. It doesn't necessarily stand out, but they do what they can to assist you. As for housekeeping, it's a totally different story. Upon walking into our Le Meridien Suite, there were used contact lenses stuck onto the door of one of the showers, and soiled (literally wet and soiled) clumps of toilet paper half under the bathroom vanity/sink. This was absolutely disgusting! I walked down to the front desk to report it. The lady and the front desk seemed very relaxed about it, saying it would be taken care of, but didn't seem too apologetic, etc. I then left my room and went off to dinner at Larimer Square. I received a phone call from the front desk following up that the room had been cleaned and the issue had been taken care of. Great... I thought - until I walked into my suite again, still with the soiled toilet paper on the ground. Did they actually call to tell me it was clean... or had I imagined...Location: This is perhaps the best selling feature of this hotel. Conveniently located approximately one to two blocks away from the 16th Street Mall, and just a few more to Larimer Square, everything attractive about Downtown Denver is within walking distance of the front door. Restaurants, stores, and live music fill the nearby streets. Service: The service at the Le Meridien is what you would expect a "basic" or "generic" four-star hotel. It doesn't necessarily stand out, but they do what they can to assist you. As for housekeeping, it's a totally different story. Upon walking into our Le Meridien Suite, there were used contact lenses stuck onto the door of one of the showers, and soiled (literally wet and soiled) clumps of toilet paper half under the bathroom vanity/sink. This was absolutely disgusting! I walked down to the front desk to report it. The lady and the front desk seemed very relaxed about it, saying it would be taken care of, but didn't seem too apologetic, etc. I then left my room and went off to dinner at Larimer Square. I received a phone call from the front desk following up that the room had been cleaned and the issue had been taken care of. Great... I thought - until I walked into my suite again, still with the soiled toilet paper on the ground. Did they actually call to tell me it was clean... or had I imagined it (I did not imagine it). I once again went down to the front desk. This time, she offered an extra breakfast voucher and was rather apologetic about the state of my suite. Someone was sent up who took care of the issue. Not a great representation of the Le Meridien brand.Room: Le Meridien Suite with 1 King Bed and 1 Murphy Queen BedThis suite was designed with European taste and fashion in mind. It was perhaps one of the most chic rooms I've stayed in within the United States. The suite was essentially two deluxe rooms with a connecting door opened up on a high floor. The two bathrooms (yes, two!) were very handy to have. If the housekeeping had been better, this would be at least a four-star rating. The suite was approximately 600 square feet, give or take - not the largest I've stayed in, but still enough to definitely be an upgrade.Elite Status: I am an SPG Platinum Preferred Guest and received the BEST breakfast I've ever had at a hotel for free! I enjoyed a complimentary entree of Shaved Prime Rib Hash at Corinne and a coffee. This was the HIGHLIGHT of my stay. As mentioned above, I did receive an upgrade to the Le Meridien Suite. Additionally, I also received complimentary enhanced high-speed internet access throughout my stay. There is not a club/concierge/executive lounge at this property (which I was more than okay with after eating at Corinne).MoreShow less</t>
+  </si>
+  <si>
+    <t>Lexi G, Front Office Manager at Le Meridien Denver Downtown, responded to this reviewResponded March 23, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 23, 2018</t>
+  </si>
+  <si>
+    <t>Location: This is perhaps the best selling feature of this hotel. Conveniently located approximately one to two blocks away from the 16th Street Mall, and just a few more to Larimer Square, everything attractive about Downtown Denver is within walking distance of the front door. Restaurants, stores, and live music fill the nearby streets. 
+Service: The service at the Le Meridien is what you would expect a "basic" or "generic" four-star hotel. It doesn't necessarily stand out, but they do what they can to assist you. As for housekeeping, it's a totally different story. Upon walking into our Le Meridien Suite, there were used contact lenses stuck onto the door of one of the showers, and soiled (literally wet and soiled) clumps of toilet paper half under the bathroom vanity/sink. This was absolutely disgusting! I walked down to the front desk to report it. The lady and the front desk seemed very relaxed about it, saying it would be taken care of, but didn't seem too apologetic, etc. I then left my room and went off to dinner at Larimer Square. I received a phone call from the front desk following up that the room had been cleaned and the issue had been taken care of. Great... I thought - until I walked into my suite again, still with the soiled toilet paper on the ground. Did they actually call to tell me it was clean... or had I imagined...Location: This is perhaps the best selling feature of this hotel. Conveniently located approximately one to two blocks away from the 16th Street Mall, and just a few more to Larimer Square, everything attractive about Downtown Denver is within walking distance of the front door. Restaurants, stores, and live music fill the nearby streets. Service: The service at the Le Meridien is what you would expect a "basic" or "generic" four-star hotel. It doesn't necessarily stand out, but they do what they can to assist you. As for housekeeping, it's a totally different story. Upon walking into our Le Meridien Suite, there were used contact lenses stuck onto the door of one of the showers, and soiled (literally wet and soiled) clumps of toilet paper half under the bathroom vanity/sink. This was absolutely disgusting! I walked down to the front desk to report it. The lady and the front desk seemed very relaxed about it, saying it would be taken care of, but didn't seem too apologetic, etc. I then left my room and went off to dinner at Larimer Square. I received a phone call from the front desk following up that the room had been cleaned and the issue had been taken care of. Great... I thought - until I walked into my suite again, still with the soiled toilet paper on the ground. Did they actually call to tell me it was clean... or had I imagined it (I did not imagine it). I once again went down to the front desk. This time, she offered an extra breakfast voucher and was rather apologetic about the state of my suite. Someone was sent up who took care of the issue. Not a great representation of the Le Meridien brand.Room: Le Meridien Suite with 1 King Bed and 1 Murphy Queen BedThis suite was designed with European taste and fashion in mind. It was perhaps one of the most chic rooms I've stayed in within the United States. The suite was essentially two deluxe rooms with a connecting door opened up on a high floor. The two bathrooms (yes, two!) were very handy to have. If the housekeeping had been better, this would be at least a four-star rating. The suite was approximately 600 square feet, give or take - not the largest I've stayed in, but still enough to definitely be an upgrade.Elite Status: I am an SPG Platinum Preferred Guest and received the BEST breakfast I've ever had at a hotel for free! I enjoyed a complimentary entree of Shaved Prime Rib Hash at Corinne and a coffee. This was the HIGHLIGHT of my stay. As mentioned above, I did receive an upgrade to the Le Meridien Suite. Additionally, I also received complimentary enhanced high-speed internet access throughout my stay. There is not a club/concierge/executive lounge at this property (which I was more than okay with after eating at Corinne).More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12289100-r567654842-Le_Meridien_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>567654842</t>
+  </si>
+  <si>
+    <t>Staycation</t>
+  </si>
+  <si>
+    <t>We really enjoyed our trip.... the staff was very friendly, the location was perfect... we loved the decor of the hotel... the room was comfy.... the only thing I would say is the parking there is a Lil extreme MoreShow less</t>
+  </si>
+  <si>
+    <t>LMAC-HotelManager, Front Office Manager at Le Meridien Denver Downtown, responded to this reviewResponded March 21, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 21, 2018</t>
+  </si>
+  <si>
+    <t>We really enjoyed our trip.... the staff was very friendly, the location was perfect... we loved the decor of the hotel... the room was comfy.... the only thing I would say is the parking there is a Lil extreme More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12289100-r566875687-Le_Meridien_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>566875687</t>
+  </si>
+  <si>
+    <t>03/16/2018</t>
+  </si>
+  <si>
+    <t>Classy Sexy Lodging in every way</t>
+  </si>
+  <si>
+    <t>Very appealing hotel. All persons: valet, front desk, bartender are great people. They smile and are inviting. The property is beautiful on the inside and the rooms are classy. I enjoyed the work out facility and the roof top is awesome. MoreShow less</t>
+  </si>
+  <si>
+    <t>LMAC-HotelManager, Front Office Manager at Le Meridien Denver Downtown, responded to this reviewResponded March 18, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 18, 2018</t>
+  </si>
+  <si>
+    <t>Very appealing hotel. All persons: valet, front desk, bartender are great people. They smile and are inviting. The property is beautiful on the inside and the rooms are classy. I enjoyed the work out facility and the roof top is awesome. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12289100-r566869346-Le_Meridien_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>566869346</t>
+  </si>
+  <si>
+    <t>Broke AC</t>
+  </si>
+  <si>
+    <t>The AC in my room wouldn’t work.  I made several inquiries regarding the broken AC to the hotel staff.  They sent a technician that left a note stating he didn’t hear any noise.  Neither did I.  I just wanted it to blow cool air.MoreShow less</t>
+  </si>
+  <si>
+    <t>The AC in my room wouldn’t work.  I made several inquiries regarding the broken AC to the hotel staff.  They sent a technician that left a note stating he didn’t hear any noise.  Neither did I.  I just wanted it to blow cool air.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12289100-r566835832-Le_Meridien_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>566835832</t>
+  </si>
+  <si>
+    <t>Fabulous Experience Despite Trouble with Airline</t>
+  </si>
+  <si>
+    <t>I was originally supposed to stay at Le Meridien Denver Downtown for three nights because I was at a Conference-- but then my flight was canceled and I had to stay in Denver 3 more nights. When I asked the front desk for additional stay, they were happy to accommodate me, and allowed me to stay in the same room I had been staying in, and gave me two mornings of complimentary breakfast. They helped me find good restaurants and fun stores, as well as assisting me in finding a cab/car to drive me to the airport when I needed to leave. I was able to print my airline ticket at the hotel, and get pretty good wifi service in my room. The TV had a wide variety of channels to watch. My view out the window was of the city, and was really a spectacular view at night. Overall a wonderful experience!MoreShow less</t>
+  </si>
+  <si>
+    <t>Gosia S, Manager at Le Meridien Denver Downtown, responded to this reviewResponded March 24, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 24, 2018</t>
+  </si>
+  <si>
+    <t>I was originally supposed to stay at Le Meridien Denver Downtown for three nights because I was at a Conference-- but then my flight was canceled and I had to stay in Denver 3 more nights. When I asked the front desk for additional stay, they were happy to accommodate me, and allowed me to stay in the same room I had been staying in, and gave me two mornings of complimentary breakfast. They helped me find good restaurants and fun stores, as well as assisting me in finding a cab/car to drive me to the airport when I needed to leave. I was able to print my airline ticket at the hotel, and get pretty good wifi service in my room. The TV had a wide variety of channels to watch. My view out the window was of the city, and was really a spectacular view at night. Overall a wonderful experience!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12289100-r566266887-Le_Meridien_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>566266887</t>
+  </si>
+  <si>
+    <t>03/13/2018</t>
+  </si>
+  <si>
+    <t>Beautiful rooms and amenities. Restaurant Corinne and The Lobbyist were darling and delicious.</t>
+  </si>
+  <si>
+    <t>The room was modern and comfy. Big TV and in-room espresso machine. I was on the third floor and unfortunately my room was on the same level as the generator. This was incredibly too loud at night so I would avoid.MoreShow less</t>
+  </si>
+  <si>
+    <t>LMAC-HotelManager, Front Office Manager at Le Meridien Denver Downtown, responded to this reviewResponded March 16, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 16, 2018</t>
+  </si>
+  <si>
+    <t>The room was modern and comfy. Big TV and in-room espresso machine. I was on the third floor and unfortunately my room was on the same level as the generator. This was incredibly too loud at night so I would avoid.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12289100-r566173149-Le_Meridien_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>566173149</t>
+  </si>
+  <si>
+    <t>03/12/2018</t>
+  </si>
+  <si>
+    <t>Ding ding ding went the trolley. . . .</t>
+  </si>
+  <si>
+    <t>Great property, but unless you want to wake up at 5:30 am to the bells of the light rail, use ear plugs or ask to have your room moved far away!  Front desk knew of the issue, but waits for customers to experience the early wake up call before taking action. The front desk was not exactly accommodating or hospitable.  MoreShow less</t>
+  </si>
+  <si>
+    <t>LMAC-HotelManager, Front Office Manager at Le Meridien Denver Downtown, responded to this reviewResponded March 13, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 13, 2018</t>
+  </si>
+  <si>
+    <t>Great property, but unless you want to wake up at 5:30 am to the bells of the light rail, use ear plugs or ask to have your room moved far away!  Front desk knew of the issue, but waits for customers to experience the early wake up call before taking action. The front desk was not exactly accommodating or hospitable.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12289100-r565888197-Le_Meridien_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>565888197</t>
+  </si>
+  <si>
+    <t>03/11/2018</t>
+  </si>
+  <si>
+    <t>Luxurious hangout in Denver Downtown</t>
+  </si>
+  <si>
+    <t>Nice Hotel located very close to the Convention Center, New modern rooms. Hotel is directly connected to a restaurant called Corinne, for Breakfast, Bruch or Dinner. Free Wifi, everything on walking distance.MoreShow less</t>
+  </si>
+  <si>
+    <t>Nice Hotel located very close to the Convention Center, New modern rooms. Hotel is directly connected to a restaurant called Corinne, for Breakfast, Bruch or Dinner. Free Wifi, everything on walking distance.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12289100-r564696006-Le_Meridien_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>564696006</t>
+  </si>
+  <si>
+    <t>03/05/2018</t>
+  </si>
+  <si>
+    <t>Beautiful and so hospitable</t>
+  </si>
+  <si>
+    <t>This hotel along with the staff is absolutely amazing. We fully enjoyed so many aspects of this hotel. Parking/valet was fast and fluid. Check in/our was easy and enjoyable. Lobby is gorgeous, spacious and open to 100% access. Elevators are fast. The room including the mattress-blanket- duel pillow options- toilet are so comfortable and accommodating. WONDERFUL 5 star hotel. MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>LMAC-HotelManager, Front Office Manager at Le Meridien Denver Downtown, responded to this reviewResponded March 8, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 8, 2018</t>
+  </si>
+  <si>
+    <t>This hotel along with the staff is absolutely amazing. We fully enjoyed so many aspects of this hotel. Parking/valet was fast and fluid. Check in/our was easy and enjoyable. Lobby is gorgeous, spacious and open to 100% access. Elevators are fast. The room including the mattress-blanket- duel pillow options- toilet are so comfortable and accommodating. WONDERFUL 5 star hotel. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12289100-r564458990-Le_Meridien_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>564458990</t>
+  </si>
+  <si>
+    <t>03/04/2018</t>
+  </si>
+  <si>
+    <t>Excellent hotel.</t>
+  </si>
+  <si>
+    <t>Bright rooms, huge windows, great service.  Great way to Enjoy Denver.  Close to everything downtown with great views.  Breakfast is fantastic, coffee bar equals starbucks.  Bright and modern lobby.  Valet parking expensive.MoreShow less</t>
+  </si>
+  <si>
+    <t>LMAC-HotelManager, Front Office Manager at Le Meridien Denver Downtown, responded to this reviewResponded March 5, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 5, 2018</t>
+  </si>
+  <si>
+    <t>Bright rooms, huge windows, great service.  Great way to Enjoy Denver.  Close to everything downtown with great views.  Breakfast is fantastic, coffee bar equals starbucks.  Bright and modern lobby.  Valet parking expensive.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12289100-r564430323-Le_Meridien_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>564430323</t>
+  </si>
+  <si>
+    <t>Great night!</t>
+  </si>
+  <si>
+    <t>This was my first time staying at Le Meridien. I enjoyed my stay very much! My room was clean, comfortable and sleek. I ordered room service from the restaurant downstairs and it  was awesome! Can’t wait to stay again!MoreShow less</t>
+  </si>
+  <si>
+    <t>This was my first time staying at Le Meridien. I enjoyed my stay very much! My room was clean, comfortable and sleek. I ordered room service from the restaurant downstairs and it  was awesome! Can’t wait to stay again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12289100-r562688127-Le_Meridien_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>562688127</t>
+  </si>
+  <si>
+    <t>02/25/2018</t>
+  </si>
+  <si>
+    <t>Great service, good price and great location</t>
+  </si>
+  <si>
+    <t>Checked in mid day Saturday for an overnight stay. I was treated with warmth and professionalism as if I was a regular customer. My guest and I enjoyed a delicious late lunch at Corrine, the hotel restaurant. Staff was attentive and helpful in every instance. The rooms and amenities were as advertised- modern, comfortable and clean. MoreShow less</t>
+  </si>
+  <si>
+    <t>LeMeridienManager303, Front Office Manager at Le Meridien Denver Downtown, responded to this reviewResponded February 26, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 26, 2018</t>
+  </si>
+  <si>
+    <t>Checked in mid day Saturday for an overnight stay. I was treated with warmth and professionalism as if I was a regular customer. My guest and I enjoyed a delicious late lunch at Corrine, the hotel restaurant. Staff was attentive and helpful in every instance. The rooms and amenities were as advertised- modern, comfortable and clean. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12289100-r562403488-Le_Meridien_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>562403488</t>
+  </si>
+  <si>
+    <t>02/23/2018</t>
+  </si>
+  <si>
+    <t>Tiny rooms</t>
+  </si>
+  <si>
+    <t>Mixed feelings about this place. Tiny rooms. One time we got back at 5pm and the room was not cleaned. As a result I got additional star points. Good. Bottom line....there are better places in Denver.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>Mixed feelings about this place. Tiny rooms. One time we got back at 5pm and the room was not cleaned. As a result I got additional star points. Good. Bottom line....there are better places in Denver.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12289100-r560078543-Le_Meridien_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>560078543</t>
+  </si>
+  <si>
+    <t>02/12/2018</t>
+  </si>
+  <si>
+    <t>New hotel, so many problems... Especially the noise.</t>
+  </si>
+  <si>
+    <t>Newly opened, and the staff is trying really hard, so maybe someday they'll have their act together, although that can do little to solve some structural issues... In the end, this basically like a poorly designed aLoft with a higher standard of formality and much more upscale lobby vibe.
+About the noise. I'm a "away from the elevator/vending/ice and high floor" person, as I do prefer less noise. I'm not one of those "it needs to be complete silence." This is a city hotel, and there is the expected and normal street noise (light rail, traffic) here like anywhere. What I am talking about here is just a terrible property design that should have put better sound-proofing and/or done a redesign for the even-numbered rooms.
+Pros:
+- Outstanding location for a large professional meeting at the convention center. Across from the Hyatt, one block the CC.
+- Close enough to 16th Street to make the trip in via the airport train and Mall Ride a breeze
+- Super friendly staff who do try to alleviate some of the issues (if you ask enough)
+- Lovely, welcoming and trendy lobby bar
+Cons:
+- The staff is super new, many seem to have not worked in the industry before.
+- Integrated safe in one of the night-stands is just a wooden drawer (not terribly secure) and there are no instructions in room about how to operate it.
+- Much of the mechanical...Newly opened, and the staff is trying really hard, so maybe someday they'll have their act together, although that can do little to solve some structural issues... In the end, this basically like a poorly designed aLoft with a higher standard of formality and much more upscale lobby vibe.About the noise. I'm a "away from the elevator/vending/ice and high floor" person, as I do prefer less noise. I'm not one of those "it needs to be complete silence." This is a city hotel, and there is the expected and normal street noise (light rail, traffic) here like anywhere. What I am talking about here is just a terrible property design that should have put better sound-proofing and/or done a redesign for the even-numbered rooms.Pros:- Outstanding location for a large professional meeting at the convention center. Across from the Hyatt, one block the CC.- Close enough to 16th Street to make the trip in via the airport train and Mall Ride a breeze- Super friendly staff who do try to alleviate some of the issues (if you ask enough)- Lovely, welcoming and trendy lobby barCons:- The staff is super new, many seem to have not worked in the industry before.- Integrated safe in one of the night-stands is just a wooden drawer (not terribly secure) and there are no instructions in room about how to operate it.- Much of the mechanical of the building seems rushed (shower door misaligned and not closing (room 1929), sliding door (room 1236) off the rails, etc.- BIGGEST ISSUE OF ALL: Evert odd numbered room is directly over the roof air-handling machinery for both this and the attach AC hotel. The windows are not sound-proof, resulting in something that to me felt like sleeping too close to an airport.I asked to be moved, and they were able to accommodate. MUCH quieter in an even-numbered room.- Careful about being close to the elevator, the music blaring out of them (pretty late into the night) carries into the rooms nearby.- This new Le Meridien layout has pretty small rooms, and to me they're not well thought out. There is nowhere for a garbage can in the sink/bathroom area (yes, area, no door between sink and bed, just doors on the head and shower stall). So much of the stuff that needs to go on counters just has either no place to go or takes up so much of the limited space. The standard room set seems to put th eice bucket and cups in the closet space (again, not a closet, just an open area).- The onsite restaurant is about as disorganized and not-ready-for-primetime as you'll see. Waiters don't all understand their own basic procedures (like how to comp a breakfast), one morning the toast came untoasted. I reserved a table, showed up on time, was asked to wait 3-5 minutes and that became 15 minutes. Another morning I showed up and it was half-empty at breakfast and I was told it was a 15 minute wait (turned into 25).MoreShow less</t>
+  </si>
+  <si>
+    <t>LeMeridienManager303, Front Office Manager at Le Meridien Denver Downtown, responded to this reviewResponded February 14, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 14, 2018</t>
+  </si>
+  <si>
+    <t>Newly opened, and the staff is trying really hard, so maybe someday they'll have their act together, although that can do little to solve some structural issues... In the end, this basically like a poorly designed aLoft with a higher standard of formality and much more upscale lobby vibe.
+About the noise. I'm a "away from the elevator/vending/ice and high floor" person, as I do prefer less noise. I'm not one of those "it needs to be complete silence." This is a city hotel, and there is the expected and normal street noise (light rail, traffic) here like anywhere. What I am talking about here is just a terrible property design that should have put better sound-proofing and/or done a redesign for the even-numbered rooms.
+Pros:
+- Outstanding location for a large professional meeting at the convention center. Across from the Hyatt, one block the CC.
+- Close enough to 16th Street to make the trip in via the airport train and Mall Ride a breeze
+- Super friendly staff who do try to alleviate some of the issues (if you ask enough)
+- Lovely, welcoming and trendy lobby bar
+Cons:
+- The staff is super new, many seem to have not worked in the industry before.
+- Integrated safe in one of the night-stands is just a wooden drawer (not terribly secure) and there are no instructions in room about how to operate it.
+- Much of the mechanical...Newly opened, and the staff is trying really hard, so maybe someday they'll have their act together, although that can do little to solve some structural issues... In the end, this basically like a poorly designed aLoft with a higher standard of formality and much more upscale lobby vibe.About the noise. I'm a "away from the elevator/vending/ice and high floor" person, as I do prefer less noise. I'm not one of those "it needs to be complete silence." This is a city hotel, and there is the expected and normal street noise (light rail, traffic) here like anywhere. What I am talking about here is just a terrible property design that should have put better sound-proofing and/or done a redesign for the even-numbered rooms.Pros:- Outstanding location for a large professional meeting at the convention center. Across from the Hyatt, one block the CC.- Close enough to 16th Street to make the trip in via the airport train and Mall Ride a breeze- Super friendly staff who do try to alleviate some of the issues (if you ask enough)- Lovely, welcoming and trendy lobby barCons:- The staff is super new, many seem to have not worked in the industry before.- Integrated safe in one of the night-stands is just a wooden drawer (not terribly secure) and there are no instructions in room about how to operate it.- Much of the mechanical of the building seems rushed (shower door misaligned and not closing (room 1929), sliding door (room 1236) off the rails, etc.- BIGGEST ISSUE OF ALL: Evert odd numbered room is directly over the roof air-handling machinery for both this and the attach AC hotel. The windows are not sound-proof, resulting in something that to me felt like sleeping too close to an airport.I asked to be moved, and they were able to accommodate. MUCH quieter in an even-numbered room.- Careful about being close to the elevator, the music blaring out of them (pretty late into the night) carries into the rooms nearby.- This new Le Meridien layout has pretty small rooms, and to me they're not well thought out. There is nowhere for a garbage can in the sink/bathroom area (yes, area, no door between sink and bed, just doors on the head and shower stall). So much of the stuff that needs to go on counters just has either no place to go or takes up so much of the limited space. The standard room set seems to put th eice bucket and cups in the closet space (again, not a closet, just an open area).- The onsite restaurant is about as disorganized and not-ready-for-primetime as you'll see. Waiters don't all understand their own basic procedures (like how to comp a breakfast), one morning the toast came untoasted. I reserved a table, showed up on time, was asked to wait 3-5 minutes and that became 15 minutes. Another morning I showed up and it was half-empty at breakfast and I was told it was a 15 minute wait (turned into 25).More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12289100-r552523017-Le_Meridien_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>552523017</t>
+  </si>
+  <si>
+    <t>01/08/2018</t>
+  </si>
+  <si>
+    <t>Location and facilities are great</t>
+  </si>
+  <si>
+    <t>The best thing about the hotel is the location and how new it is. The rooms are not very big but coziness is not compromised. The lobby bar is great. Great kindness from the hotel staff. The shower was also great. Amazing stay!MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>LeMeridienManager303, Front Office Manager at Le Meridien Denver Downtown, responded to this reviewResponded January 9, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 9, 2018</t>
+  </si>
+  <si>
+    <t>The best thing about the hotel is the location and how new it is. The rooms are not very big but coziness is not compromised. The lobby bar is great. Great kindness from the hotel staff. The shower was also great. Amazing stay!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12289100-r552512874-Le_Meridien_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>552512874</t>
+  </si>
+  <si>
+    <t>Think Twice</t>
+  </si>
+  <si>
+    <t>I've stayed at almost every upscale full service property in Denver. Le Meridien is new, so I was looking forward to my visit here. 
+First, let me say that the hotel public areas, including the restaurant, the lobby and the rooftop bar are all great. The food and cocktails are satisfying, the staff is very professional and everyone will greet you with a smile. That said, the room designs are awful, IMO. 
+If you are a business traveler, you'll feel trapped and cramped in a small room (280sf) that is neither cozy nor conducive to work. Previous guests have commented that they are really small...management writes that the rooms are "euro inspired".  As a Platinum I was "upgraded" to a superior king.  That means view, not size.   The bed itself is fine, but takes up much of the room. My room had two "benches" instead of chairs...they were neither functional nor comfortable...unless you're lying on the bed it's very difficult to relax on anything in this room. There is a narrow ledge and mini tub chair that is supposed to function as a desk. The ledge is cramped and covered up with a small lamp and the world's most complicated coffeemaker so don't count on doing much work here. (Why does this hotel insist on these hard to use European coffee makers? There is a 6-panel printed pamphlet of instructions but the machine itself still provides an undersized, disappointing product.)...I've stayed at almost every upscale full service property in Denver. Le Meridien is new, so I was looking forward to my visit here. First, let me say that the hotel public areas, including the restaurant, the lobby and the rooftop bar are all great. The food and cocktails are satisfying, the staff is very professional and everyone will greet you with a smile. That said, the room designs are awful, IMO. If you are a business traveler, you'll feel trapped and cramped in a small room (280sf) that is neither cozy nor conducive to work. Previous guests have commented that they are really small...management writes that the rooms are "euro inspired".  As a Platinum I was "upgraded" to a superior king.  That means view, not size.   The bed itself is fine, but takes up much of the room. My room had two "benches" instead of chairs...they were neither functional nor comfortable...unless you're lying on the bed it's very difficult to relax on anything in this room. There is a narrow ledge and mini tub chair that is supposed to function as a desk. The ledge is cramped and covered up with a small lamp and the world's most complicated coffeemaker so don't count on doing much work here. (Why does this hotel insist on these hard to use European coffee makers? There is a 6-panel printed pamphlet of instructions but the machine itself still provides an undersized, disappointing product.) Expecting a closet? There isn't one...there's an exposed rack with hangars similar to what you might find in a limited service hotel, but your clothes will be out in the open for all to see. The bathroom? To be charitable, "small and quirky". The sink is exposed to the room's front door and you can't block it off. There is no doorway between the sink and the bedroom so guests trying to sleep-in will be awakened by the sink.  There is little horizontal space on which to put things (although there are a couple of shelves underneath, they are not deep enough to hold even a toiletry kit). Very frustrating. The walk-in shower, however, is nice (as are the quality toiletries). Think you'll just ask for an upgrade? Don't count on it...this was one of the higher category rooms...the others are likely to be just as cramped. In summary, this is one of those hotels that appears to have let their designers go wild creating chic and cute, rather than comfortable and practical. It would be charming in Paris but seems out of place in Denver's Central Business District. It's a shame...everything else about the hotel seems to be well-run and well-managed. Too bad that the room design (what should have been the easy part) will be so difficult to fix. In this part of town and at these room rates, there are more satisfying choices."MoreShow less</t>
+  </si>
+  <si>
+    <t>I've stayed at almost every upscale full service property in Denver. Le Meridien is new, so I was looking forward to my visit here. 
+First, let me say that the hotel public areas, including the restaurant, the lobby and the rooftop bar are all great. The food and cocktails are satisfying, the staff is very professional and everyone will greet you with a smile. That said, the room designs are awful, IMO. 
+If you are a business traveler, you'll feel trapped and cramped in a small room (280sf) that is neither cozy nor conducive to work. Previous guests have commented that they are really small...management writes that the rooms are "euro inspired".  As a Platinum I was "upgraded" to a superior king.  That means view, not size.   The bed itself is fine, but takes up much of the room. My room had two "benches" instead of chairs...they were neither functional nor comfortable...unless you're lying on the bed it's very difficult to relax on anything in this room. There is a narrow ledge and mini tub chair that is supposed to function as a desk. The ledge is cramped and covered up with a small lamp and the world's most complicated coffeemaker so don't count on doing much work here. (Why does this hotel insist on these hard to use European coffee makers? There is a 6-panel printed pamphlet of instructions but the machine itself still provides an undersized, disappointing product.)...I've stayed at almost every upscale full service property in Denver. Le Meridien is new, so I was looking forward to my visit here. First, let me say that the hotel public areas, including the restaurant, the lobby and the rooftop bar are all great. The food and cocktails are satisfying, the staff is very professional and everyone will greet you with a smile. That said, the room designs are awful, IMO. If you are a business traveler, you'll feel trapped and cramped in a small room (280sf) that is neither cozy nor conducive to work. Previous guests have commented that they are really small...management writes that the rooms are "euro inspired".  As a Platinum I was "upgraded" to a superior king.  That means view, not size.   The bed itself is fine, but takes up much of the room. My room had two "benches" instead of chairs...they were neither functional nor comfortable...unless you're lying on the bed it's very difficult to relax on anything in this room. There is a narrow ledge and mini tub chair that is supposed to function as a desk. The ledge is cramped and covered up with a small lamp and the world's most complicated coffeemaker so don't count on doing much work here. (Why does this hotel insist on these hard to use European coffee makers? There is a 6-panel printed pamphlet of instructions but the machine itself still provides an undersized, disappointing product.) Expecting a closet? There isn't one...there's an exposed rack with hangars similar to what you might find in a limited service hotel, but your clothes will be out in the open for all to see. The bathroom? To be charitable, "small and quirky". The sink is exposed to the room's front door and you can't block it off. There is no doorway between the sink and the bedroom so guests trying to sleep-in will be awakened by the sink.  There is little horizontal space on which to put things (although there are a couple of shelves underneath, they are not deep enough to hold even a toiletry kit). Very frustrating. The walk-in shower, however, is nice (as are the quality toiletries). Think you'll just ask for an upgrade? Don't count on it...this was one of the higher category rooms...the others are likely to be just as cramped. In summary, this is one of those hotels that appears to have let their designers go wild creating chic and cute, rather than comfortable and practical. It would be charming in Paris but seems out of place in Denver's Central Business District. It's a shame...everything else about the hotel seems to be well-run and well-managed. Too bad that the room design (what should have been the easy part) will be so difficult to fix. In this part of town and at these room rates, there are more satisfying choices."More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12289100-r551516406-Le_Meridien_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>551516406</t>
+  </si>
+  <si>
+    <t>01/04/2018</t>
+  </si>
+  <si>
+    <t>Excellent Staff and Rooms/Great Location</t>
+  </si>
+  <si>
+    <t>We stayed for one night to attend a concert at the Fillmore. The front desk, especially Genevieve, was very friendly and helpful.
+Everything is brand new, super clean, cozy and cute. The pictures make it look extremely modern, but it’s cozy too.  The room was very comfortable, quiet and clean. The bar food (Corinne) is delicious. We ate at the bar for dinner and ordered room service pretty late. It arrived promptly and was very good too. I felt that they went above and beyond in providing customer service. I called down in the morning to ask for hot water to mix with a DayQuil powder and they assumed I wasn’t feeling well (I wasn’t). Room service arrived with hot water, complimentary mini honey jars and lemons that I hadn’t asked for, and also he asked if he could bring me Emergen C or medicine! I travel with both things so I declined, but as it was about 10 degrees outside, this little extra thing made a big impact on my day. 
+It’s about 1 block from the 16th st mall and close to most everything. The Fillmore is within a 15-min walk or so but it was too cold that night. The next morning, the valet drove me to pick up my rental car and was prompt and friendly. 
+The only complaint that I have is that the Friday evening manager did not fill up the tank to the...We stayed for one night to attend a concert at the Fillmore. The front desk, especially Genevieve, was very friendly and helpful.Everything is brand new, super clean, cozy and cute. The pictures make it look extremely modern, but it’s cozy too.  The room was very comfortable, quiet and clean. The bar food (Corinne) is delicious. We ate at the bar for dinner and ordered room service pretty late. It arrived promptly and was very good too. I felt that they went above and beyond in providing customer service. I called down in the morning to ask for hot water to mix with a DayQuil powder and they assumed I wasn’t feeling well (I wasn’t). Room service arrived with hot water, complimentary mini honey jars and lemons that I hadn’t asked for, and also he asked if he could bring me Emergen C or medicine! I travel with both things so I declined, but as it was about 10 degrees outside, this little extra thing made a big impact on my day. It’s about 1 block from the 16th st mall and close to most everything. The Fillmore is within a 15-min walk or so but it was too cold that night. The next morning, the valet drove me to pick up my rental car and was prompt and friendly. The only complaint that I have is that the Friday evening manager did not fill up the tank to the hotel car, so it could not be used that night to get around. We wanted to use it to get to and from our concert. On such a cold night, I felt like this could/should have been avoided. Still, overall we felt that we got a five star experience. MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed for one night to attend a concert at the Fillmore. The front desk, especially Genevieve, was very friendly and helpful.
+Everything is brand new, super clean, cozy and cute. The pictures make it look extremely modern, but it’s cozy too.  The room was very comfortable, quiet and clean. The bar food (Corinne) is delicious. We ate at the bar for dinner and ordered room service pretty late. It arrived promptly and was very good too. I felt that they went above and beyond in providing customer service. I called down in the morning to ask for hot water to mix with a DayQuil powder and they assumed I wasn’t feeling well (I wasn’t). Room service arrived with hot water, complimentary mini honey jars and lemons that I hadn’t asked for, and also he asked if he could bring me Emergen C or medicine! I travel with both things so I declined, but as it was about 10 degrees outside, this little extra thing made a big impact on my day. 
+It’s about 1 block from the 16th st mall and close to most everything. The Fillmore is within a 15-min walk or so but it was too cold that night. The next morning, the valet drove me to pick up my rental car and was prompt and friendly. 
+The only complaint that I have is that the Friday evening manager did not fill up the tank to the...We stayed for one night to attend a concert at the Fillmore. The front desk, especially Genevieve, was very friendly and helpful.Everything is brand new, super clean, cozy and cute. The pictures make it look extremely modern, but it’s cozy too.  The room was very comfortable, quiet and clean. The bar food (Corinne) is delicious. We ate at the bar for dinner and ordered room service pretty late. It arrived promptly and was very good too. I felt that they went above and beyond in providing customer service. I called down in the morning to ask for hot water to mix with a DayQuil powder and they assumed I wasn’t feeling well (I wasn’t). Room service arrived with hot water, complimentary mini honey jars and lemons that I hadn’t asked for, and also he asked if he could bring me Emergen C or medicine! I travel with both things so I declined, but as it was about 10 degrees outside, this little extra thing made a big impact on my day. It’s about 1 block from the 16th st mall and close to most everything. The Fillmore is within a 15-min walk or so but it was too cold that night. The next morning, the valet drove me to pick up my rental car and was prompt and friendly. The only complaint that I have is that the Friday evening manager did not fill up the tank to the hotel car, so it could not be used that night to get around. We wanted to use it to get to and from our concert. On such a cold night, I felt like this could/should have been avoided. Still, overall we felt that we got a five star experience. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12289100-r549754469-Le_Meridien_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>549754469</t>
+  </si>
+  <si>
+    <t>12/28/2017</t>
+  </si>
+  <si>
+    <t>Immaculate new hotel</t>
+  </si>
+  <si>
+    <t>This Le Meridien is brand new.  It shows in the elegant, thoughtful, design of the guest rooms.   The rooms are not large, but they are laid out to maximize space and efficiency.   The bathroom design in particular is very cool- with an open concept, and an only an enclosed bath closet and shower.   I loved the Malin &amp; Goetz bath products.I was scheduled for two nights here this week- and ending up cancelling one due to snow on short notice.   The fee was graciously waived by Adama in reception- which was generous and will likely draw me back to this hotel the next time I am in town.   She provided excellent service.  It's a short walk to the most downtown attractions.   At $45 per night, Valet was a bit steep- but the value of the room rate offset the cost for me.   My only disappointment was the water- it was not hot at 6AM on a Thursday.   The front desk was not particularly responsive when I notified them as a courtesy to remaining guests.   Overall, another excellent SPG stay.   MoreShow less</t>
+  </si>
+  <si>
+    <t>LeMeridienManager303, Front Office Manager at Le Meridien Denver Downtown, responded to this reviewResponded December 29, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 29, 2017</t>
+  </si>
+  <si>
+    <t>This Le Meridien is brand new.  It shows in the elegant, thoughtful, design of the guest rooms.   The rooms are not large, but they are laid out to maximize space and efficiency.   The bathroom design in particular is very cool- with an open concept, and an only an enclosed bath closet and shower.   I loved the Malin &amp; Goetz bath products.I was scheduled for two nights here this week- and ending up cancelling one due to snow on short notice.   The fee was graciously waived by Adama in reception- which was generous and will likely draw me back to this hotel the next time I am in town.   She provided excellent service.  It's a short walk to the most downtown attractions.   At $45 per night, Valet was a bit steep- but the value of the room rate offset the cost for me.   My only disappointment was the water- it was not hot at 6AM on a Thursday.   The front desk was not particularly responsive when I notified them as a courtesy to remaining guests.   Overall, another excellent SPG stay.   More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12289100-r549720158-Le_Meridien_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>549720158</t>
+  </si>
+  <si>
+    <t>Mrs P</t>
+  </si>
+  <si>
+    <t>Oh my WOW!  This hotel has it all:  fabulous decor, awesome location, over the top staff, a roof top bar, AND a restaurant that is quite delicious. If you are looking for a comfortable, hip, superbly located hotel, The Le Meridian is the place for you. Cannot imagine how great it would be to stay here while bringing in the New Year!MoreShow less</t>
+  </si>
+  <si>
+    <t>Oh my WOW!  This hotel has it all:  fabulous decor, awesome location, over the top staff, a roof top bar, AND a restaurant that is quite delicious. If you are looking for a comfortable, hip, superbly located hotel, The Le Meridian is the place for you. Cannot imagine how great it would be to stay here while bringing in the New Year!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12289100-r549312376-Le_Meridien_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>549312376</t>
+  </si>
+  <si>
+    <t>12/26/2017</t>
+  </si>
+  <si>
+    <t>Weekend Getaway</t>
+  </si>
+  <si>
+    <t>Wow!  This property is gorgeous!  Great location, friendly staff and the perfect spot for a weekend getaway!  I can't wait to go back this summer to enjoy the rooftop bar.  Thanks for a great experience!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Wow!  This property is gorgeous!  Great location, friendly staff and the perfect spot for a weekend getaway!  I can't wait to go back this summer to enjoy the rooftop bar.  Thanks for a great experience!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12289100-r547751336-Le_Meridien_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>547751336</t>
+  </si>
+  <si>
+    <t>12/17/2017</t>
+  </si>
+  <si>
+    <t>We are pretty loyal SPG members so we were really pleased with the Le Meridien In Downtown Denver. As this property had only been open a couple of months when we stayed, we were expecting a couple of glitches. Well we were certainly surprised. Every staff member we encountered went above and beyond. No request went unfulfilled. While having a drink at the lobby bar, I happened to ask about some interesting liquor bottles. Next thing we knew, we were enjoying a taste test and lesson on some incredible whiskies. On a second night we asked for Zambuca.... they didn’t carry it, but the bartender recommended a different liquor that was surprisingly enjoyable. All and all a great addition to downtown. Very central to all kinds of restaurants and entertainment. Will definitely return...MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>LeMeridienManager303, Front Office Manager at Le Meridien Denver Downtown, responded to this reviewResponded December 21, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 21, 2017</t>
+  </si>
+  <si>
+    <t>We are pretty loyal SPG members so we were really pleased with the Le Meridien In Downtown Denver. As this property had only been open a couple of months when we stayed, we were expecting a couple of glitches. Well we were certainly surprised. Every staff member we encountered went above and beyond. No request went unfulfilled. While having a drink at the lobby bar, I happened to ask about some interesting liquor bottles. Next thing we knew, we were enjoying a taste test and lesson on some incredible whiskies. On a second night we asked for Zambuca.... they didn’t carry it, but the bartender recommended a different liquor that was surprisingly enjoyable. All and all a great addition to downtown. Very central to all kinds of restaurants and entertainment. Will definitely return...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12289100-r547587979-Le_Meridien_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>547587979</t>
+  </si>
+  <si>
+    <t>12/16/2017</t>
+  </si>
+  <si>
+    <t>Great stay</t>
+  </si>
+  <si>
+    <t>Hotel had a great feel, staff was great, in-room dining was solid, location was nice, and bed was amazingly comfortable.  We would definitely stay here again, without question.  Seemed to have pretty good night life as well. MoreShow less</t>
+  </si>
+  <si>
+    <t>Hotel had a great feel, staff was great, in-room dining was solid, location was nice, and bed was amazingly comfortable.  We would definitely stay here again, without question.  Seemed to have pretty good night life as well. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12289100-r547550142-Le_Meridien_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>547550142</t>
+  </si>
+  <si>
+    <t>First time at Le Meridien Denver</t>
+  </si>
+  <si>
+    <t>I travel to Denver often on business, and I've stayed at the Sheraton, Westin and Aloft downtown many times. This was my first time at Le Meridien. It's brand new, and of the hotels I named, is certainly the most chic. The staff were all very nice. From the check-in, valet, bar and restaurant servers, everyone was very welcoming and enjoyable. I stayed in a suite which is different than a typical suite. It's actual 2 rooms with an adjoining door. It wasn't what I expected, but it's fine. The room was average size. Maybe a bit small. But it's very chic with a great bathroom. Great lighting and a nice shower. I had a housekeeping issue which the hotel rectified once I brought it to their attention. The bar downstairs is nice, and I thought the price for wine was reasonable. I had breakfast at the restaurant, Corinne, and the service was good. Food too. I recommend this hotel, and I would stay here again.  Despite my housekeeping issue, I would still give the hotel a 5, but primarily because of the response the hotel gave my concern.MoreShow less</t>
+  </si>
+  <si>
+    <t>I travel to Denver often on business, and I've stayed at the Sheraton, Westin and Aloft downtown many times. This was my first time at Le Meridien. It's brand new, and of the hotels I named, is certainly the most chic. The staff were all very nice. From the check-in, valet, bar and restaurant servers, everyone was very welcoming and enjoyable. I stayed in a suite which is different than a typical suite. It's actual 2 rooms with an adjoining door. It wasn't what I expected, but it's fine. The room was average size. Maybe a bit small. But it's very chic with a great bathroom. Great lighting and a nice shower. I had a housekeeping issue which the hotel rectified once I brought it to their attention. The bar downstairs is nice, and I thought the price for wine was reasonable. I had breakfast at the restaurant, Corinne, and the service was good. Food too. I recommend this hotel, and I would stay here again.  Despite my housekeeping issue, I would still give the hotel a 5, but primarily because of the response the hotel gave my concern.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12289100-r547401505-Le_Meridien_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>547401505</t>
+  </si>
+  <si>
+    <t>12/15/2017</t>
+  </si>
+  <si>
+    <t>EXCELLENT</t>
+  </si>
+  <si>
+    <t>There are so many choices of where to stay in downtown Denver, and after a disastrous stay at a competitor less than a mile away, we moved to Le Meridien. A warm welcome, great service, a courtesy car for journeys less than a mile, a great room, fresh fluffy towels, an awesome bar area in the lobby and a super menu in the restaurant...we WILL be back. Congratulations Le Meridien - you made a GREAT impression.MoreShow less</t>
+  </si>
+  <si>
+    <t>LeMeridienManager303, Front Office Manager at Le Meridien Denver Downtown, responded to this reviewResponded December 18, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 18, 2017</t>
+  </si>
+  <si>
+    <t>There are so many choices of where to stay in downtown Denver, and after a disastrous stay at a competitor less than a mile away, we moved to Le Meridien. A warm welcome, great service, a courtesy car for journeys less than a mile, a great room, fresh fluffy towels, an awesome bar area in the lobby and a super menu in the restaurant...we WILL be back. Congratulations Le Meridien - you made a GREAT impression.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12289100-r547264099-Le_Meridien_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>547264099</t>
+  </si>
+  <si>
+    <t>12/14/2017</t>
+  </si>
+  <si>
+    <t>Great way to end a week of work</t>
+  </si>
+  <si>
+    <t>Stayed here toward the end of my business trip actually (stayed at a nearby Marriott property previously) and it ended up being a pleasant surprise. The front desk staff was great the room had a quaint European vibe. The rooms are on the small side though. There is no "real" separation between the sleeping area and the shower/sink area. So, if you're bringing the kids may need to upgrade. MoreShow less</t>
+  </si>
+  <si>
+    <t>LeMeridienManager303, Front Office Manager at Le Meridien Denver Downtown, responded to this reviewResponded December 15, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 15, 2017</t>
+  </si>
+  <si>
+    <t>Stayed here toward the end of my business trip actually (stayed at a nearby Marriott property previously) and it ended up being a pleasant surprise. The front desk staff was great the room had a quaint European vibe. The rooms are on the small side though. There is no "real" separation between the sleeping area and the shower/sink area. So, if you're bringing the kids may need to upgrade. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12289100-r547048346-Le_Meridien_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>547048346</t>
+  </si>
+  <si>
+    <t>12/13/2017</t>
+  </si>
+  <si>
+    <t>Cool European Vibe</t>
+  </si>
+  <si>
+    <t>Had a great time here, The staff at the Lobbyist Bar were super friendly and had an extensive knowledge of different drinks and infused syrups. The decor inside the hotel was also really amazing,even if you live in Denver it's worth stopping by to check it out.MoreShow less</t>
+  </si>
+  <si>
+    <t>Had a great time here, The staff at the Lobbyist Bar were super friendly and had an extensive knowledge of different drinks and infused syrups. The decor inside the hotel was also really amazing,even if you live in Denver it's worth stopping by to check it out.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12289100-r546501908-Le_Meridien_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>546501908</t>
+  </si>
+  <si>
+    <t>12/10/2017</t>
+  </si>
+  <si>
+    <t>Excellent staff!!</t>
+  </si>
+  <si>
+    <t>Great stay in Downtown Denver at this new hotel. We were bummed the rooftop bar was closed but our overall stay was great. The staff is extremely friendly and helpful. They had great suggestions on places to eat during our entire stay!MoreShow less</t>
+  </si>
+  <si>
+    <t>LeMeridienManager303, Front Office Manager at Le Meridien Denver Downtown, responded to this reviewResponded December 11, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 11, 2017</t>
+  </si>
+  <si>
+    <t>Great stay in Downtown Denver at this new hotel. We were bummed the rooftop bar was closed but our overall stay was great. The staff is extremely friendly and helpful. They had great suggestions on places to eat during our entire stay!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12289100-r546491211-Le_Meridien_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>546491211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Best Get Away </t>
+  </si>
+  <si>
+    <t>I met my husband in Denver for a brief get away. I truly have strong opinions about where I stay and the services provided during my stay and many places would not make an impression on me. I must say that I was pleasantly surprised about my stay at the Le Meridien Hotel. The ambiance and the services provided were truly exceptional. This hotel is an A+ in my book. Although the roof top bar was not open during my stay, I am sure it would draw anyone to it from near or far and would be a high light to end the evening for anyone.  My husband and myself have enjoyed our stay and one special person has ensured that everything went smoothly. Special thanks to “Art “ for she is truly an asset to the hotel. She has gone above an beyond. Please make this your destination of interest if traveling alone, as a couple or a family. I am sure it will meet all your needs. Highly impressed!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>I met my husband in Denver for a brief get away. I truly have strong opinions about where I stay and the services provided during my stay and many places would not make an impression on me. I must say that I was pleasantly surprised about my stay at the Le Meridien Hotel. The ambiance and the services provided were truly exceptional. This hotel is an A+ in my book. Although the roof top bar was not open during my stay, I am sure it would draw anyone to it from near or far and would be a high light to end the evening for anyone.  My husband and myself have enjoyed our stay and one special person has ensured that everything went smoothly. Special thanks to “Art “ for she is truly an asset to the hotel. She has gone above an beyond. Please make this your destination of interest if traveling alone, as a couple or a family. I am sure it will meet all your needs. Highly impressed!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12289100-r546479221-Le_Meridien_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>546479221</t>
+  </si>
+  <si>
+    <t>Hotel exceeding all expectations</t>
+  </si>
+  <si>
+    <t>This hotel immediately relaxed me upon entering. They had beautiful interior and helpful employees that made me feel at ease during a crazy day. I got a suggestion to eat at Corinne's and take a look at the rooftop bar. Corinne's was great and the service was really impressive considering they had just opened. The rooftop bar was spectacular overlooking the city to the east and the mountains to the west.  Will definitely be making it back to Denver and will stay in no other hotel!MoreShow less</t>
+  </si>
+  <si>
+    <t>Niels V, General Manager at Le Meridien Denver Downtown, responded to this reviewResponded April 16, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 16, 2018</t>
+  </si>
+  <si>
+    <t>This hotel immediately relaxed me upon entering. They had beautiful interior and helpful employees that made me feel at ease during a crazy day. I got a suggestion to eat at Corinne's and take a look at the rooftop bar. Corinne's was great and the service was really impressive considering they had just opened. The rooftop bar was spectacular overlooking the city to the east and the mountains to the west.  Will definitely be making it back to Denver and will stay in no other hotel!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12289100-r545090558-Le_Meridien_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>545090558</t>
+  </si>
+  <si>
+    <t>12/04/2017</t>
+  </si>
+  <si>
+    <t>Simple, Elegant, Romantic</t>
+  </si>
+  <si>
+    <t>The wife and I needed a short getaway so we thought we'd try Le Meridien.  The rates are reasonable so we upgraded to a "bed &amp; breakfast" package.  We live nearby so we opted for a Lyft driver to avoid the exorbitant parking rates (parking at the hotel is not free, not cheap, valet-only.  It's the only real drawback).  We were warmly greeted at the door by an employee and received an even warmer welcome from the on-duty manager Nate.  He asked a few friendly questions regarding our stay, looked in his computer, and decided he'd upgrade us to a nicer room with a better view.  He also threw in two vouchers for us to enjoy a complimentary drink.  He stated that the rooftop bar is closed for business for the season but that we could still go relax up there once we got our drink downstairs at the bar.  Talk about a great start to the evening!  We soon took our voucher to the bar.  I had the Negroni, which was amazing and my wife had her favorite, a Moscow Mule.  For our second round we both ordered Negronis as they were just that great.  We took them up to the rooftop and were all by ourselves.  We shared a few moments alone, took some selfies and then headed out for dinner up the street.  The room was beautiful and functional.  The layout is fairly minimalistic, which we loved....The wife and I needed a short getaway so we thought we'd try Le Meridien.  The rates are reasonable so we upgraded to a "bed &amp; breakfast" package.  We live nearby so we opted for a Lyft driver to avoid the exorbitant parking rates (parking at the hotel is not free, not cheap, valet-only.  It's the only real drawback).  We were warmly greeted at the door by an employee and received an even warmer welcome from the on-duty manager Nate.  He asked a few friendly questions regarding our stay, looked in his computer, and decided he'd upgrade us to a nicer room with a better view.  He also threw in two vouchers for us to enjoy a complimentary drink.  He stated that the rooftop bar is closed for business for the season but that we could still go relax up there once we got our drink downstairs at the bar.  Talk about a great start to the evening!  We soon took our voucher to the bar.  I had the Negroni, which was amazing and my wife had her favorite, a Moscow Mule.  For our second round we both ordered Negronis as they were just that great.  We took them up to the rooftop and were all by ourselves.  We shared a few moments alone, took some selfies and then headed out for dinner up the street.  The room was beautiful and functional.  The layout is fairly minimalistic, which we loved.  It is a spacious room containing only what you really need.  I love the mid-century decor with plenty of modern touches, such as the huge 55-inch smart TV, and the bluetooth portable radio.  The rain shower with detachable handheld shower spray were relaxing.  The view of the city from the room was breathtaking.  Illy espresso/coffee machine was so cool, I wish I had one at home!  it made great espresso.  The bed is comfortable but then again iI have a much more comfy memory foam mattress at home so the sleep experience was not the best ever.  Pillows are too soft for a side sleeper like me.  On the other hand my wife slept very well so it's a matter of personal preference.  Breakfast at Corinne was delicious.  I had the chicken and waffles, which was delicious and my wife had a conventional eggs with bacon and toast plate.  The coffee was great all through the hotel. All around we had a great experience and it helped set the tone for a lovely, much needed, romantic outing for me and my wife. I do believe we will stay here again in the future.MoreShow less</t>
+  </si>
+  <si>
+    <t>LeMeridienManager303, Front Office Manager at Le Meridien Denver Downtown, responded to this reviewResponded December 8, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 8, 2017</t>
+  </si>
+  <si>
+    <t>The wife and I needed a short getaway so we thought we'd try Le Meridien.  The rates are reasonable so we upgraded to a "bed &amp; breakfast" package.  We live nearby so we opted for a Lyft driver to avoid the exorbitant parking rates (parking at the hotel is not free, not cheap, valet-only.  It's the only real drawback).  We were warmly greeted at the door by an employee and received an even warmer welcome from the on-duty manager Nate.  He asked a few friendly questions regarding our stay, looked in his computer, and decided he'd upgrade us to a nicer room with a better view.  He also threw in two vouchers for us to enjoy a complimentary drink.  He stated that the rooftop bar is closed for business for the season but that we could still go relax up there once we got our drink downstairs at the bar.  Talk about a great start to the evening!  We soon took our voucher to the bar.  I had the Negroni, which was amazing and my wife had her favorite, a Moscow Mule.  For our second round we both ordered Negronis as they were just that great.  We took them up to the rooftop and were all by ourselves.  We shared a few moments alone, took some selfies and then headed out for dinner up the street.  The room was beautiful and functional.  The layout is fairly minimalistic, which we loved....The wife and I needed a short getaway so we thought we'd try Le Meridien.  The rates are reasonable so we upgraded to a "bed &amp; breakfast" package.  We live nearby so we opted for a Lyft driver to avoid the exorbitant parking rates (parking at the hotel is not free, not cheap, valet-only.  It's the only real drawback).  We were warmly greeted at the door by an employee and received an even warmer welcome from the on-duty manager Nate.  He asked a few friendly questions regarding our stay, looked in his computer, and decided he'd upgrade us to a nicer room with a better view.  He also threw in two vouchers for us to enjoy a complimentary drink.  He stated that the rooftop bar is closed for business for the season but that we could still go relax up there once we got our drink downstairs at the bar.  Talk about a great start to the evening!  We soon took our voucher to the bar.  I had the Negroni, which was amazing and my wife had her favorite, a Moscow Mule.  For our second round we both ordered Negronis as they were just that great.  We took them up to the rooftop and were all by ourselves.  We shared a few moments alone, took some selfies and then headed out for dinner up the street.  The room was beautiful and functional.  The layout is fairly minimalistic, which we loved.  It is a spacious room containing only what you really need.  I love the mid-century decor with plenty of modern touches, such as the huge 55-inch smart TV, and the bluetooth portable radio.  The rain shower with detachable handheld shower spray were relaxing.  The view of the city from the room was breathtaking.  Illy espresso/coffee machine was so cool, I wish I had one at home!  it made great espresso.  The bed is comfortable but then again iI have a much more comfy memory foam mattress at home so the sleep experience was not the best ever.  Pillows are too soft for a side sleeper like me.  On the other hand my wife slept very well so it's a matter of personal preference.  Breakfast at Corinne was delicious.  I had the chicken and waffles, which was delicious and my wife had a conventional eggs with bacon and toast plate.  The coffee was great all through the hotel. All around we had a great experience and it helped set the tone for a lovely, much needed, romantic outing for me and my wife. I do believe we will stay here again in the future.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12289100-r544665550-Le_Meridien_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>544665550</t>
+  </si>
+  <si>
+    <t>12/02/2017</t>
+  </si>
+  <si>
+    <t>Amazing Bar, Cocktails and Awesome Service!</t>
+  </si>
+  <si>
+    <t>Had a recent business trip to Denver and although I didn't get the chance to stay at the brand new Le Meridien, I did have the opportunity to enjoy some amazing cocktails in their lobby bar one evening, and also had an outstanding lunch with a colleague the following day in their restaurant.  While the quality of the food and drinks were certainly top notch, it was the friendly, warm and welcoming service provided by the employees that truly set them apart.  Even though they've only been open a short time, they run their operation smoothly and efficiently.  We were well looked after without the staff ever feeling intrusive.  You can tell that management has done an exceptional job with training of this team, and that the employees have fully embraced a customer service first attitude.  I very much look forward to my next trip back to Denver where I intend on staying at the hotel and experiencing what I'm sure are amazing rooms.MoreShow less</t>
+  </si>
+  <si>
+    <t>Had a recent business trip to Denver and although I didn't get the chance to stay at the brand new Le Meridien, I did have the opportunity to enjoy some amazing cocktails in their lobby bar one evening, and also had an outstanding lunch with a colleague the following day in their restaurant.  While the quality of the food and drinks were certainly top notch, it was the friendly, warm and welcoming service provided by the employees that truly set them apart.  Even though they've only been open a short time, they run their operation smoothly and efficiently.  We were well looked after without the staff ever feeling intrusive.  You can tell that management has done an exceptional job with training of this team, and that the employees have fully embraced a customer service first attitude.  I very much look forward to my next trip back to Denver where I intend on staying at the hotel and experiencing what I'm sure are amazing rooms.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12289100-r544612548-Le_Meridien_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>544612548</t>
+  </si>
+  <si>
+    <t>AC Lounge</t>
+  </si>
+  <si>
+    <t>Great spot to watch the parade of lights! Even lowered music upon request so we could hear the parade. Try their speciality drinks this season! The Gluhwein was incredibly tasty!! Great way to start the holiday season! We’ll be back!MoreShow less</t>
+  </si>
+  <si>
+    <t>Great spot to watch the parade of lights! Even lowered music upon request so we could hear the parade. Try their speciality drinks this season! The Gluhwein was incredibly tasty!! Great way to start the holiday season! We’ll be back!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12289100-r543818508-Le_Meridien_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>543818508</t>
+  </si>
+  <si>
+    <t>11/28/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nice staff. Nice look. Kinda small. </t>
+  </si>
+  <si>
+    <t>Lovely lobby and perfect greeting from delightful desk staff. Nice valet too. Lobbyist bar was attractive with an interesting menu. Did not try Corinne restaurant but it looked very 2017. Fitness center on roof was much better than I expected from a small hotel. Everything about the room was fine but like airline seats it seemed a little tight for no reason. Two rooms less per floor and it would have been great. “Closet” was completely open and unattractive but all lighting was gorgeous. Nice TV. Nice clock. Great shower. MoreShow less</t>
+  </si>
+  <si>
+    <t>LeMeridienManager303, Front Office Manager at Le Meridien Denver Downtown, responded to this reviewResponded November 29, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 29, 2017</t>
+  </si>
+  <si>
+    <t>Lovely lobby and perfect greeting from delightful desk staff. Nice valet too. Lobbyist bar was attractive with an interesting menu. Did not try Corinne restaurant but it looked very 2017. Fitness center on roof was much better than I expected from a small hotel. Everything about the room was fine but like airline seats it seemed a little tight for no reason. Two rooms less per floor and it would have been great. “Closet” was completely open and unattractive but all lighting was gorgeous. Nice TV. Nice clock. Great shower. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12289100-r543681153-Le_Meridien_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>543681153</t>
+  </si>
+  <si>
+    <t>11/27/2017</t>
+  </si>
+  <si>
+    <t>There's a good vibe here...</t>
+  </si>
+  <si>
+    <t>We enjoyed our stay and loved this hotel. Ours was a last-minute game time decision to call Le Meridien because we abruptly left another hotel/inn (see my review on the Lumber Baron Inn and Gardens).Service? Impeccable. Atmosphere? Modern, warm and welcoming. Location? Close to everything downtown! Price? Competitive and VERY reasonable. When we return to Denver, we will stay here again. For sure.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>We enjoyed our stay and loved this hotel. Ours was a last-minute game time decision to call Le Meridien because we abruptly left another hotel/inn (see my review on the Lumber Baron Inn and Gardens).Service? Impeccable. Atmosphere? Modern, warm and welcoming. Location? Close to everything downtown! Price? Competitive and VERY reasonable. When we return to Denver, we will stay here again. For sure.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12289100-r541277994-Le_Meridien_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>541277994</t>
+  </si>
+  <si>
+    <t>11/15/2017</t>
+  </si>
+  <si>
+    <t>Chic... trendy... nice location... restaurant great... staff in progress... rooms smallish</t>
+  </si>
+  <si>
+    <t>This trendy new chic hotel in Denver is in a great location. The lobby bar gathering area is happening most times of the day. The restaurant had tasty treats for breakfast and lunch. The rooms are smaillish, thank goodness we had been given an upgrade as Platinum Starwood members and had ample room for our grandson and all the goodies we bought during our visit. We had wifi, breakfast each morning in the Corinne, bottled water, included. Room service and cleaning in the room was mixed, some days it was spot on and others it was just OK. The last night/day in particular was quite mixed. Bed was not made and there was not toiletries left in the room. Customer Service was quite good at reception and in the restaurant. The valet parking was expensive but it was good having in and out privileges. Overall, a nice stay they still need to get even better at making this place a A+, 5 star experience. I believe they will get there.MoreShow less</t>
+  </si>
+  <si>
+    <t>LeMeridienManager303, Front Office Manager at Le Meridien Denver Downtown, responded to this reviewResponded November 26, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 26, 2017</t>
+  </si>
+  <si>
+    <t>This trendy new chic hotel in Denver is in a great location. The lobby bar gathering area is happening most times of the day. The restaurant had tasty treats for breakfast and lunch. The rooms are smaillish, thank goodness we had been given an upgrade as Platinum Starwood members and had ample room for our grandson and all the goodies we bought during our visit. We had wifi, breakfast each morning in the Corinne, bottled water, included. Room service and cleaning in the room was mixed, some days it was spot on and others it was just OK. The last night/day in particular was quite mixed. Bed was not made and there was not toiletries left in the room. Customer Service was quite good at reception and in the restaurant. The valet parking was expensive but it was good having in and out privileges. Overall, a nice stay they still need to get even better at making this place a A+, 5 star experience. I believe they will get there.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12289100-r540084292-Le_Meridien_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>540084292</t>
+  </si>
+  <si>
+    <t>11/10/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beautiful hotel. Great restaurant </t>
+  </si>
+  <si>
+    <t>Beautiful hotel - the design and styling is wonderful.  There are several restaurants and bars to choose from and accommodate anything you may need.  The staff are friendly and accommodating. The service is phenomenal.  MoreShow less</t>
+  </si>
+  <si>
+    <t>LeMeridienManager303, Front Office Manager at Le Meridien Denver Downtown, responded to this reviewResponded November 11, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 11, 2017</t>
+  </si>
+  <si>
+    <t>Beautiful hotel - the design and styling is wonderful.  There are several restaurants and bars to choose from and accommodate anything you may need.  The staff are friendly and accommodating. The service is phenomenal.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12289100-r539871832-Le_Meridien_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>539871832</t>
+  </si>
+  <si>
+    <t>11/09/2017</t>
+  </si>
+  <si>
+    <t>Beautiful Hotel in a perfect location</t>
+  </si>
+  <si>
+    <t>I chose this hotel based on its proximity to the conference I was attending. The location was perfect for everything I wanted to see was within walking distance.  
+The look and feel of this property is quite nice and new. 
+However, the newness means some bugs apparently haven’t been worked out yet.  The WiFi did not work in my original room so I was moved to another room where it did.  The espresso maker put out cold water for the tea. I would have tried the espresso to see if that came out hot, but it hadn’t been restocked. So I just tried to make hot tea then forgot about it. The phone in the new room didn’t work, but that was only a minor hassle. It did keep me from ordering room service and calling down to have the valets bring my car though.  I did not mention these minor annoyances to the staff, but I’m sure they would have been right on it as they were with the WiFi.  
+The staff were very friendly and helpful.  The valets doubled as doormen which was nice. Check in and check out were quick and easy.  Their response to my WiFi issue was impressive, and they gave me a card for complimentary breakfast for the length of my stay. I did not get to use this because it was at a sit-down and order style restaurant, and I did not have...I chose this hotel based on its proximity to the conference I was attending. The location was perfect for everything I wanted to see was within walking distance.  The look and feel of this property is quite nice and new. However, the newness means some bugs apparently haven’t been worked out yet.  The WiFi did not work in my original room so I was moved to another room where it did.  The espresso maker put out cold water for the tea. I would have tried the espresso to see if that came out hot, but it hadn’t been restocked. So I just tried to make hot tea then forgot about it. The phone in the new room didn’t work, but that was only a minor hassle. It did keep me from ordering room service and calling down to have the valets bring my car though.  I did not mention these minor annoyances to the staff, but I’m sure they would have been right on it as they were with the WiFi.  The staff were very friendly and helpful.  The valets doubled as doormen which was nice. Check in and check out were quick and easy.  Their response to my WiFi issue was impressive, and they gave me a card for complimentary breakfast for the length of my stay. I did not get to use this because it was at a sit-down and order style restaurant, and I did not have that much time in the mornings. Valet parking there seemed a bit pricey for where the car was parked. It was around $45 or $50 per night and the car was parked across the street in a regular city lot type place out in the elements.  There was a diy lot just like it 30 steps away for $32 and no wait to get your car. I did not eat at the restaurant or go to any bars in the hotel, so I can’t speak to those.  I’m sure they were nice.  I did not see the fitness center or a pool/spa. I am generally not a high maintenance traveler when I’m traveling alone so the things I mentioned didn’t bother me much.  When traveling on business, location is my primary concern and this place fit the bill. If I had been traveling with my wife, who is much more discerning, the swanky-factor may have been more of the focus and the amenities more utilized.  MoreShow less</t>
+  </si>
+  <si>
+    <t>I chose this hotel based on its proximity to the conference I was attending. The location was perfect for everything I wanted to see was within walking distance.  
+The look and feel of this property is quite nice and new. 
+However, the newness means some bugs apparently haven’t been worked out yet.  The WiFi did not work in my original room so I was moved to another room where it did.  The espresso maker put out cold water for the tea. I would have tried the espresso to see if that came out hot, but it hadn’t been restocked. So I just tried to make hot tea then forgot about it. The phone in the new room didn’t work, but that was only a minor hassle. It did keep me from ordering room service and calling down to have the valets bring my car though.  I did not mention these minor annoyances to the staff, but I’m sure they would have been right on it as they were with the WiFi.  
+The staff were very friendly and helpful.  The valets doubled as doormen which was nice. Check in and check out were quick and easy.  Their response to my WiFi issue was impressive, and they gave me a card for complimentary breakfast for the length of my stay. I did not get to use this because it was at a sit-down and order style restaurant, and I did not have...I chose this hotel based on its proximity to the conference I was attending. The location was perfect for everything I wanted to see was within walking distance.  The look and feel of this property is quite nice and new. However, the newness means some bugs apparently haven’t been worked out yet.  The WiFi did not work in my original room so I was moved to another room where it did.  The espresso maker put out cold water for the tea. I would have tried the espresso to see if that came out hot, but it hadn’t been restocked. So I just tried to make hot tea then forgot about it. The phone in the new room didn’t work, but that was only a minor hassle. It did keep me from ordering room service and calling down to have the valets bring my car though.  I did not mention these minor annoyances to the staff, but I’m sure they would have been right on it as they were with the WiFi.  The staff were very friendly and helpful.  The valets doubled as doormen which was nice. Check in and check out were quick and easy.  Their response to my WiFi issue was impressive, and they gave me a card for complimentary breakfast for the length of my stay. I did not get to use this because it was at a sit-down and order style restaurant, and I did not have that much time in the mornings. Valet parking there seemed a bit pricey for where the car was parked. It was around $45 or $50 per night and the car was parked across the street in a regular city lot type place out in the elements.  There was a diy lot just like it 30 steps away for $32 and no wait to get your car. I did not eat at the restaurant or go to any bars in the hotel, so I can’t speak to those.  I’m sure they were nice.  I did not see the fitness center or a pool/spa. I am generally not a high maintenance traveler when I’m traveling alone so the things I mentioned didn’t bother me much.  When traveling on business, location is my primary concern and this place fit the bill. If I had been traveling with my wife, who is much more discerning, the swanky-factor may have been more of the focus and the amenities more utilized.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12289100-r539411401-Le_Meridien_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>539411401</t>
+  </si>
+  <si>
+    <t>11/08/2017</t>
+  </si>
+  <si>
+    <t>Weekend in downtown Denver</t>
+  </si>
+  <si>
+    <t>My husband and I were so excited to stay in this brand new swanky hotel in downtown Denver.  We were definitely disappointed.  On the plus side, the service was good, the rooms and hotel were very clean, and the hotel was in a great location.  The rooms were very tiny, maybe one of the smallest hotel rooms I've ever stayed in.  The rooms are so small, there isn't even a closet.  The bed was so uncomfortable, one of the worst hotel beds I've ever slept in.  So we had a poor night's sleep in a tiny room.  We ordered room service the firstMoreShow less</t>
+  </si>
+  <si>
+    <t>My husband and I were so excited to stay in this brand new swanky hotel in downtown Denver.  We were definitely disappointed.  On the plus side, the service was good, the rooms and hotel were very clean, and the hotel was in a great location.  The rooms were very tiny, maybe one of the smallest hotel rooms I've ever stayed in.  The rooms are so small, there isn't even a closet.  The bed was so uncomfortable, one of the worst hotel beds I've ever slept in.  So we had a poor night's sleep in a tiny room.  We ordered room service the firstMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12289100-r536643971-Le_Meridien_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>536643971</t>
+  </si>
+  <si>
+    <t>10/28/2017</t>
+  </si>
+  <si>
+    <t>Location was great, located very close to the convention center. Rooms were new and clean though very small. I believe I have stayed in larger rooms in hotels in NYC and Boston. It's a interesting concept, but not what I would expect when paying a luxury price tag.MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded October 31, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 31, 2017</t>
+  </si>
+  <si>
+    <t>Location was great, located very close to the convention center. Rooms were new and clean though very small. I believe I have stayed in larger rooms in hotels in NYC and Boston. It's a interesting concept, but not what I would expect when paying a luxury price tag.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12289100-r536435575-Le_Meridien_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>536435575</t>
+  </si>
+  <si>
+    <t>10/27/2017</t>
+  </si>
+  <si>
+    <t>Beautiful Boutique Hotel - Great Location in the Downtown Area</t>
+  </si>
+  <si>
+    <t>We used this property as an overflow hotel for our event and we received only positive comments from those who stayed there. They loved the lobby area with the local art and the open air-roof top bar received many compliments too.  Definitely would like to go back and host an entire event with this one.MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded October 28, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 28, 2017</t>
+  </si>
+  <si>
+    <t>We used this property as an overflow hotel for our event and we received only positive comments from those who stayed there. They loved the lobby area with the local art and the open air-roof top bar received many compliments too.  Definitely would like to go back and host an entire event with this one.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12289100-r536047326-Le_Meridien_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>536047326</t>
+  </si>
+  <si>
+    <t>10/25/2017</t>
+  </si>
+  <si>
+    <t>Awesome hotel and staff</t>
+  </si>
+  <si>
+    <t>My girlfriend and I took a short vacation to Denver and can not say enough good things about our stay. From the moment we pulled up front Tom out valet welcomed us and the Ian check us in with a wonderful welcome  our room was spacious and we'll appointed with great views of the city  we did encounter a problem with our coffee maker that was immediately resolved. The rooftop bar is a great way to see the city and beautiful mountains while having a great cocktail. We will definitely be back and thank the hotel and staff for a great time.MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded October 26, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 26, 2017</t>
+  </si>
+  <si>
+    <t>My girlfriend and I took a short vacation to Denver and can not say enough good things about our stay. From the moment we pulled up front Tom out valet welcomed us and the Ian check us in with a wonderful welcome  our room was spacious and we'll appointed with great views of the city  we did encounter a problem with our coffee maker that was immediately resolved. The rooftop bar is a great way to see the city and beautiful mountains while having a great cocktail. We will definitely be back and thank the hotel and staff for a great time.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12289100-r533769357-Le_Meridien_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>533769357</t>
+  </si>
+  <si>
+    <t>10/17/2017</t>
+  </si>
+  <si>
+    <t>Great downtown stay</t>
+  </si>
+  <si>
+    <t>Was recently here for 2 nights on a business trip.  Good downtown location, a block off the 16th street mall.  Hotel is lovely.  Modern and clean decor.  Bell and front desk staff were very friendly.  Was in a nice king room, that had everything you could need.  I didn't try the restaurant/bar, so I cannot comment on that.  I would definitely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded October 19, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 19, 2017</t>
+  </si>
+  <si>
+    <t>Was recently here for 2 nights on a business trip.  Good downtown location, a block off the 16th street mall.  Hotel is lovely.  Modern and clean decor.  Bell and front desk staff were very friendly.  Was in a nice king room, that had everything you could need.  I didn't try the restaurant/bar, so I cannot comment on that.  I would definitely stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12289100-r532999823-Le_Meridien_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>532999823</t>
+  </si>
+  <si>
+    <t>10/14/2017</t>
+  </si>
+  <si>
+    <t>My the Meridien chain has slipped</t>
+  </si>
+  <si>
+    <t>If you want a perfectly adequate business hotel albeit a highly overpriced one this is it, If you expect the top level experience that used to epitomize the Meridien Chain well this is not even close.  They share a lobby and common areas with a lower branded AC Hotel next door.  The lobby is actually a nice place to have coffee and meet friends or clients. But, they push the rooftop bar so oftentimes the lobby is filled with hangers on.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>Management response:Responded October 16, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 16, 2017</t>
+  </si>
+  <si>
+    <t>If you want a perfectly adequate business hotel albeit a highly overpriced one this is it, If you expect the top level experience that used to epitomize the Meridien Chain well this is not even close.  They share a lobby and common areas with a lower branded AC Hotel next door.  The lobby is actually a nice place to have coffee and meet friends or clients. But, they push the rooftop bar so oftentimes the lobby is filled with hangers on.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12289100-r532674987-Le_Meridien_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>532674987</t>
+  </si>
+  <si>
+    <t>10/13/2017</t>
+  </si>
+  <si>
+    <t>COMPLETELY IMPRESSED!!</t>
+  </si>
+  <si>
+    <t>I visited this hotel for a work conference recently and I was COMPLETELY impressed!  From the moment I checked in to the moment I checked out I was wowed by the hotel itself and the team of people working there.  The hotel itself is very hip and I loved the decor and the comfy/chic lobby area.  The food that was served to us at the conference (breakfasts and lunches mostly) was delicious and beautifully presented.  The staff was friendly, courteous and really outgoing and fun.  I was particularly impressed by Savannah, a server up at the rooftop bar (54thirty).  Our big crowd poured into the bar all at once and with all the demands and shouting of drink orders she kept her (genuine) great attitude and big smile and made us all feel welcomed while keeping up with service.  Would go back to this place in a heartbeat!MoreShow less</t>
+  </si>
+  <si>
+    <t>I visited this hotel for a work conference recently and I was COMPLETELY impressed!  From the moment I checked in to the moment I checked out I was wowed by the hotel itself and the team of people working there.  The hotel itself is very hip and I loved the decor and the comfy/chic lobby area.  The food that was served to us at the conference (breakfasts and lunches mostly) was delicious and beautifully presented.  The staff was friendly, courteous and really outgoing and fun.  I was particularly impressed by Savannah, a server up at the rooftop bar (54thirty).  Our big crowd poured into the bar all at once and with all the demands and shouting of drink orders she kept her (genuine) great attitude and big smile and made us all feel welcomed while keeping up with service.  Would go back to this place in a heartbeat!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12289100-r528795767-Le_Meridien_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>528795767</t>
+  </si>
+  <si>
+    <t>10/01/2017</t>
+  </si>
+  <si>
+    <t>Small rooms</t>
+  </si>
+  <si>
+    <t>Le Meriden is conveniently located in Downrown Denver near the Conventin Center.  The hotel is new and the lobby is nice and the roof top bar has great views.  The rooms, however, are very small and there is no dooor to separate the bathroom shower and sink from the room.  There s a door that separates the toilet from the hotel room.  There are also no towel racks, only 2 small hooks, so you have to put your hand towel on the sink.  If there are 2 people in a King room, as my husband and I were, there is no privacy and very little space to hang up clothes.  MoreShow less</t>
+  </si>
+  <si>
+    <t>Alexander L, Manager at Le Meridien Denver Downtown, responded to this reviewResponded October 5, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 5, 2017</t>
+  </si>
+  <si>
+    <t>Le Meriden is conveniently located in Downrown Denver near the Conventin Center.  The hotel is new and the lobby is nice and the roof top bar has great views.  The rooms, however, are very small and there is no dooor to separate the bathroom shower and sink from the room.  There s a door that separates the toilet from the hotel room.  There are also no towel racks, only 2 small hooks, so you have to put your hand towel on the sink.  If there are 2 people in a King room, as my husband and I were, there is no privacy and very little space to hang up clothes.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12289100-r528377605-Le_Meridien_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>528377605</t>
+  </si>
+  <si>
+    <t>09/29/2017</t>
+  </si>
+  <si>
+    <t>Fabulous Experience</t>
+  </si>
+  <si>
+    <t>This new hotel downtown offers a stylish, modern french, hotel experience. It is unique and contemporary while being welcoming and comfortable. Stay here and you are encouraged to enjoy the entire hotel, not just your room. Lounging areas throughout the lobby area are inviting spaces, the restaurant offers first rate food while being inexpensive and the roof top bar, gorgeous with expansive mountain views. Bicycles are available to explore the city at your leisure OR a Range Rover will drive you anywhere within the downtown area (both complimentary). Your room key will get you free samples, tours and discounts at multiple local shops, bars, museums, breweries etc. Allowing you to explore and sample local Colorado fare. Take the opportunity to enjoy a hotel experience entirely different than the everyday. You won't be disappointed.MoreShow less</t>
+  </si>
+  <si>
+    <t>This new hotel downtown offers a stylish, modern french, hotel experience. It is unique and contemporary while being welcoming and comfortable. Stay here and you are encouraged to enjoy the entire hotel, not just your room. Lounging areas throughout the lobby area are inviting spaces, the restaurant offers first rate food while being inexpensive and the roof top bar, gorgeous with expansive mountain views. Bicycles are available to explore the city at your leisure OR a Range Rover will drive you anywhere within the downtown area (both complimentary). Your room key will get you free samples, tours and discounts at multiple local shops, bars, museums, breweries etc. Allowing you to explore and sample local Colorado fare. Take the opportunity to enjoy a hotel experience entirely different than the everyday. You won't be disappointed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12289100-r528106756-Le_Meridien_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>528106756</t>
+  </si>
+  <si>
+    <t>09/28/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Good food and outstanding service </t>
+  </si>
+  <si>
+    <t>Rooftop bar had a good view, but was very busy and crowded. The chicken and waffles at Corinne were the best ! The service received at the front desk upon check in was excellent and Daniel (think that was his name) was pleasant, helpful and very attentive.MoreShow less</t>
+  </si>
+  <si>
+    <t>Rooftop bar had a good view, but was very busy and crowded. The chicken and waffles at Corinne were the best ! The service received at the front desk upon check in was excellent and Daniel (think that was his name) was pleasant, helpful and very attentive.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12289100-r525529354-Le_Meridien_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>525529354</t>
+  </si>
+  <si>
+    <t>09/18/2017</t>
+  </si>
+  <si>
+    <t>Simply the best!</t>
+  </si>
+  <si>
+    <t>WOW is all I can say after a weekend spent at the new Le Meridien Denver downtown. Just walking into the hotel, there's a big wow factor. The lobby is super chic with spiral staircase, beautiful chandeliers and an amazing bar. Check in was easy and friendly. Once I got to my room, I knew I would be returning to the hotel again and again. I loved the gray wood floors, the contemporary furnishings, the Malin+Goetz bath products, and the Illy coffee! Similar to the lobby, the room had a distinctly contemporary yet warm feel to it that felt much more creative and inviting than your standard chain hotel. I also dined at the hotel's restaurants, Corinne, for dinner one evening. The service and food were outstanding. We had the buffalo cauliflower appetizer, French onion soup, brussels sprouts and chicken. All were great but the standout was the buffalo cauliflower - I had never had a dish like that before and wish I could have it over and over again. Overall, would highly recommend and look forward to returning to this gem next time I'm in Denver.MoreShow less</t>
+  </si>
+  <si>
+    <t>WOW is all I can say after a weekend spent at the new Le Meridien Denver downtown. Just walking into the hotel, there's a big wow factor. The lobby is super chic with spiral staircase, beautiful chandeliers and an amazing bar. Check in was easy and friendly. Once I got to my room, I knew I would be returning to the hotel again and again. I loved the gray wood floors, the contemporary furnishings, the Malin+Goetz bath products, and the Illy coffee! Similar to the lobby, the room had a distinctly contemporary yet warm feel to it that felt much more creative and inviting than your standard chain hotel. I also dined at the hotel's restaurants, Corinne, for dinner one evening. The service and food were outstanding. We had the buffalo cauliflower appetizer, French onion soup, brussels sprouts and chicken. All were great but the standout was the buffalo cauliflower - I had never had a dish like that before and wish I could have it over and over again. Overall, would highly recommend and look forward to returning to this gem next time I'm in Denver.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12289100-r525472783-Le_Meridien_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>525472783</t>
+  </si>
+  <si>
+    <t>Good but still working out the kinks</t>
+  </si>
+  <si>
+    <t>This hotel just opened and it's beautiful. Lots of friendly staff everywhere. Room is small but nice, comfy bed. Easy to get to from the airport taking the train to Union Station and either walking, taking the free 16th street bus or a short Uber ride. Negatives: our room didn't cleaned one day even though we were gone from 9am-9pm. The hotel has a Range Rover service that will take you within a 1 mile radius but when we asked about it to take us to Union Station they told us their Range Rover got into an accident and they didn't have a car. There is a rooftop bar with a great view but it uses the same elevators as the rooms. It gets busy so you have to get past a long line of people waiting to use the elevators to get to the bar. MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel just opened and it's beautiful. Lots of friendly staff everywhere. Room is small but nice, comfy bed. Easy to get to from the airport taking the train to Union Station and either walking, taking the free 16th street bus or a short Uber ride. Negatives: our room didn't cleaned one day even though we were gone from 9am-9pm. The hotel has a Range Rover service that will take you within a 1 mile radius but when we asked about it to take us to Union Station they told us their Range Rover got into an accident and they didn't have a car. There is a rooftop bar with a great view but it uses the same elevators as the rooms. It gets busy so you have to get past a long line of people waiting to use the elevators to get to the bar. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12289100-r524897706-Le_Meridien_Denver_Downtown-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>524897706</t>
+  </si>
+  <si>
+    <t>09/16/2017</t>
+  </si>
+  <si>
+    <t>Maybe NEW isn't always the best</t>
+  </si>
+  <si>
+    <t>This hotel is in a perfect location for a visit to Denver. I also chose because it's a new hotel. My husband, brother and friend are staying 3 nights and the wonderful experience that I was anticipating has fell short. Some areas that need a little work. I understand the pull up area for valet is small and you want to offer 5 star service but maybe there should be something in place to allow guests time to gather their belongings out of the car and not making them feel rushed causing them to maybe leave items in the car. Next, when entering a hotel as a guest a simple greeting or acknowledgement of the guest  is ok but the " are you guys looking for something" and to walk towards the customer in my opinion is not a good approach as you can make a guest feel uncomfortable. Also, another example guests waiting on the outside of hotel waiting on other guests had an example where the were approached by a hotel worker.."you guys need help" again making them feel uncomfortable...again new hotel awesome location some of the staff is awesome others how and what they say can affect your stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel is in a perfect location for a visit to Denver. I also chose because it's a new hotel. My husband, brother and friend are staying 3 nights and the wonderful experience that I was anticipating has fell short. Some areas that need a little work. I understand the pull up area for valet is small and you want to offer 5 star service but maybe there should be something in place to allow guests time to gather their belongings out of the car and not making them feel rushed causing them to maybe leave items in the car. Next, when entering a hotel as a guest a simple greeting or acknowledgement of the guest  is ok but the " are you guys looking for something" and to walk towards the customer in my opinion is not a good approach as you can make a guest feel uncomfortable. Also, another example guests waiting on the outside of hotel waiting on other guests had an example where the were approached by a hotel worker.."you guys need help" again making them feel uncomfortable...again new hotel awesome location some of the staff is awesome others how and what they say can affect your stay.More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +2633,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +2665,6091 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>64882</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>64882</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
+        <v>62</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="n">
+        <v>5</v>
+      </c>
+      <c r="R3" t="s"/>
+      <c r="S3" t="n">
+        <v>5</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>54</v>
+      </c>
+      <c r="X3" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>64882</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" t="s">
+        <v>66</v>
+      </c>
+      <c r="K4" t="s">
+        <v>67</v>
+      </c>
+      <c r="L4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>52</v>
+      </c>
+      <c r="O4" t="s">
+        <v>62</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>69</v>
+      </c>
+      <c r="X4" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>64882</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>73</v>
+      </c>
+      <c r="J5" t="s">
+        <v>74</v>
+      </c>
+      <c r="K5" t="s">
+        <v>75</v>
+      </c>
+      <c r="L5" t="s">
+        <v>76</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>52</v>
+      </c>
+      <c r="O5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>77</v>
+      </c>
+      <c r="X5" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>64882</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>81</v>
+      </c>
+      <c r="J6" t="s">
+        <v>82</v>
+      </c>
+      <c r="K6" t="s">
+        <v>83</v>
+      </c>
+      <c r="L6" t="s">
+        <v>84</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>52</v>
+      </c>
+      <c r="O6" t="s">
+        <v>85</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>77</v>
+      </c>
+      <c r="X6" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>64882</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>88</v>
+      </c>
+      <c r="J7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L7" t="s">
+        <v>91</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>92</v>
+      </c>
+      <c r="O7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="n">
+        <v>4</v>
+      </c>
+      <c r="R7" t="s"/>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>4</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>93</v>
+      </c>
+      <c r="X7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>64882</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>96</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>97</v>
+      </c>
+      <c r="J8" t="s">
+        <v>98</v>
+      </c>
+      <c r="K8" t="s">
+        <v>99</v>
+      </c>
+      <c r="L8" t="s">
+        <v>100</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>92</v>
+      </c>
+      <c r="O8" t="s">
+        <v>62</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>101</v>
+      </c>
+      <c r="X8" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>64882</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>103</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>104</v>
+      </c>
+      <c r="J9" t="s">
+        <v>98</v>
+      </c>
+      <c r="K9" t="s">
+        <v>105</v>
+      </c>
+      <c r="L9" t="s">
+        <v>106</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>52</v>
+      </c>
+      <c r="O9" t="s">
+        <v>85</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>93</v>
+      </c>
+      <c r="X9" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>64882</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>108</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>109</v>
+      </c>
+      <c r="J10" t="s">
+        <v>110</v>
+      </c>
+      <c r="K10" t="s">
+        <v>111</v>
+      </c>
+      <c r="L10" t="s">
+        <v>112</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>92</v>
+      </c>
+      <c r="O10" t="s">
+        <v>62</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>113</v>
+      </c>
+      <c r="X10" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>64882</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>116</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>117</v>
+      </c>
+      <c r="J11" t="s">
+        <v>118</v>
+      </c>
+      <c r="K11" t="s">
+        <v>119</v>
+      </c>
+      <c r="L11" t="s">
+        <v>120</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>92</v>
+      </c>
+      <c r="O11" t="s">
+        <v>121</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>122</v>
+      </c>
+      <c r="X11" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>64882</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>125</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>126</v>
+      </c>
+      <c r="J12" t="s">
+        <v>127</v>
+      </c>
+      <c r="K12" t="s">
+        <v>128</v>
+      </c>
+      <c r="L12" t="s">
+        <v>129</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>92</v>
+      </c>
+      <c r="O12" t="s">
+        <v>62</v>
+      </c>
+      <c r="P12" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="n">
+        <v>5</v>
+      </c>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>130</v>
+      </c>
+      <c r="X12" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>64882</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>133</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>134</v>
+      </c>
+      <c r="J13" t="s">
+        <v>135</v>
+      </c>
+      <c r="K13" t="s">
+        <v>136</v>
+      </c>
+      <c r="L13" t="s">
+        <v>137</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>92</v>
+      </c>
+      <c r="O13" t="s">
+        <v>85</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>130</v>
+      </c>
+      <c r="X13" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>64882</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>139</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>140</v>
+      </c>
+      <c r="J14" t="s">
+        <v>141</v>
+      </c>
+      <c r="K14" t="s">
+        <v>142</v>
+      </c>
+      <c r="L14" t="s">
+        <v>143</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>92</v>
+      </c>
+      <c r="O14" t="s">
+        <v>121</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>144</v>
+      </c>
+      <c r="X14" t="s">
+        <v>145</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>64882</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>147</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>148</v>
+      </c>
+      <c r="J15" t="s">
+        <v>141</v>
+      </c>
+      <c r="K15" t="s">
+        <v>149</v>
+      </c>
+      <c r="L15" t="s">
+        <v>150</v>
+      </c>
+      <c r="M15" t="n">
+        <v>3</v>
+      </c>
+      <c r="N15" t="s">
+        <v>151</v>
+      </c>
+      <c r="O15" t="s">
+        <v>85</v>
+      </c>
+      <c r="P15" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>144</v>
+      </c>
+      <c r="X15" t="s">
+        <v>145</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>64882</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>153</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>154</v>
+      </c>
+      <c r="J16" t="s">
+        <v>155</v>
+      </c>
+      <c r="K16" t="s">
+        <v>156</v>
+      </c>
+      <c r="L16" t="s">
+        <v>157</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>151</v>
+      </c>
+      <c r="O16" t="s">
+        <v>62</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="n">
+        <v>5</v>
+      </c>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>144</v>
+      </c>
+      <c r="X16" t="s">
+        <v>145</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>64882</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>159</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>160</v>
+      </c>
+      <c r="J17" t="s">
+        <v>161</v>
+      </c>
+      <c r="K17" t="s">
+        <v>162</v>
+      </c>
+      <c r="L17" t="s">
+        <v>163</v>
+      </c>
+      <c r="M17" t="n">
+        <v>3</v>
+      </c>
+      <c r="N17" t="s">
+        <v>151</v>
+      </c>
+      <c r="O17" t="s">
+        <v>62</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>164</v>
+      </c>
+      <c r="X17" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>64882</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>167</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>168</v>
+      </c>
+      <c r="J18" t="s">
+        <v>161</v>
+      </c>
+      <c r="K18" t="s">
+        <v>169</v>
+      </c>
+      <c r="L18" t="s">
+        <v>170</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>151</v>
+      </c>
+      <c r="O18" t="s">
+        <v>62</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>164</v>
+      </c>
+      <c r="X18" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>64882</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>172</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>173</v>
+      </c>
+      <c r="J19" t="s">
+        <v>161</v>
+      </c>
+      <c r="K19" t="s">
+        <v>174</v>
+      </c>
+      <c r="L19" t="s">
+        <v>175</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>151</v>
+      </c>
+      <c r="O19" t="s">
+        <v>62</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>164</v>
+      </c>
+      <c r="X19" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>64882</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>177</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>178</v>
+      </c>
+      <c r="J20" t="s">
+        <v>179</v>
+      </c>
+      <c r="K20" t="s">
+        <v>180</v>
+      </c>
+      <c r="L20" t="s">
+        <v>181</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>151</v>
+      </c>
+      <c r="O20" t="s">
+        <v>62</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>182</v>
+      </c>
+      <c r="X20" t="s">
+        <v>183</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>64882</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>185</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>186</v>
+      </c>
+      <c r="J21" t="s">
+        <v>179</v>
+      </c>
+      <c r="K21" t="s">
+        <v>187</v>
+      </c>
+      <c r="L21" t="s">
+        <v>188</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>151</v>
+      </c>
+      <c r="O21" t="s">
+        <v>62</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>182</v>
+      </c>
+      <c r="X21" t="s">
+        <v>183</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>64882</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>190</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>191</v>
+      </c>
+      <c r="J22" t="s">
+        <v>192</v>
+      </c>
+      <c r="K22" t="s">
+        <v>193</v>
+      </c>
+      <c r="L22" t="s">
+        <v>194</v>
+      </c>
+      <c r="M22" t="n">
+        <v>3</v>
+      </c>
+      <c r="N22" t="s">
+        <v>151</v>
+      </c>
+      <c r="O22" t="s">
+        <v>62</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>195</v>
+      </c>
+      <c r="X22" t="s">
+        <v>196</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>64882</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>198</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>199</v>
+      </c>
+      <c r="J23" t="s">
+        <v>200</v>
+      </c>
+      <c r="K23" t="s">
+        <v>201</v>
+      </c>
+      <c r="L23" t="s">
+        <v>202</v>
+      </c>
+      <c r="M23" t="n">
+        <v>2</v>
+      </c>
+      <c r="N23" t="s">
+        <v>151</v>
+      </c>
+      <c r="O23" t="s">
+        <v>203</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>204</v>
+      </c>
+      <c r="X23" t="s">
+        <v>205</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>64882</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>207</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>208</v>
+      </c>
+      <c r="J24" t="s">
+        <v>209</v>
+      </c>
+      <c r="K24" t="s">
+        <v>210</v>
+      </c>
+      <c r="L24" t="s">
+        <v>211</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4</v>
+      </c>
+      <c r="N24" t="s">
+        <v>151</v>
+      </c>
+      <c r="O24" t="s">
+        <v>53</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="n">
+        <v>5</v>
+      </c>
+      <c r="R24" t="n">
+        <v>5</v>
+      </c>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>3</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>204</v>
+      </c>
+      <c r="X24" t="s">
+        <v>205</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>64882</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>213</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>214</v>
+      </c>
+      <c r="J25" t="s">
+        <v>215</v>
+      </c>
+      <c r="K25" t="s">
+        <v>216</v>
+      </c>
+      <c r="L25" t="s">
+        <v>217</v>
+      </c>
+      <c r="M25" t="n">
+        <v>4</v>
+      </c>
+      <c r="N25" t="s">
+        <v>151</v>
+      </c>
+      <c r="O25" t="s">
+        <v>203</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>218</v>
+      </c>
+      <c r="X25" t="s">
+        <v>219</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>64882</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>221</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>222</v>
+      </c>
+      <c r="J26" t="s">
+        <v>223</v>
+      </c>
+      <c r="K26" t="s">
+        <v>224</v>
+      </c>
+      <c r="L26" t="s">
+        <v>225</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>226</v>
+      </c>
+      <c r="O26" t="s">
+        <v>62</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="n">
+        <v>5</v>
+      </c>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>227</v>
+      </c>
+      <c r="X26" t="s">
+        <v>228</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>64882</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>230</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>231</v>
+      </c>
+      <c r="J27" t="s">
+        <v>223</v>
+      </c>
+      <c r="K27" t="s">
+        <v>232</v>
+      </c>
+      <c r="L27" t="s">
+        <v>233</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>151</v>
+      </c>
+      <c r="O27" t="s">
+        <v>62</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="n">
+        <v>5</v>
+      </c>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>227</v>
+      </c>
+      <c r="X27" t="s">
+        <v>228</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>64882</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>235</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>236</v>
+      </c>
+      <c r="J28" t="s">
+        <v>223</v>
+      </c>
+      <c r="K28" t="s">
+        <v>237</v>
+      </c>
+      <c r="L28" t="s">
+        <v>238</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>151</v>
+      </c>
+      <c r="O28" t="s">
+        <v>62</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>239</v>
+      </c>
+      <c r="X28" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>64882</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>242</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>243</v>
+      </c>
+      <c r="J29" t="s">
+        <v>244</v>
+      </c>
+      <c r="K29" t="s">
+        <v>245</v>
+      </c>
+      <c r="L29" t="s">
+        <v>246</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>226</v>
+      </c>
+      <c r="O29" t="s">
+        <v>203</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>247</v>
+      </c>
+      <c r="X29" t="s">
+        <v>248</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>64882</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>250</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>251</v>
+      </c>
+      <c r="J30" t="s">
+        <v>244</v>
+      </c>
+      <c r="K30" t="s">
+        <v>252</v>
+      </c>
+      <c r="L30" t="s">
+        <v>253</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>226</v>
+      </c>
+      <c r="O30" t="s">
+        <v>62</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="n">
+        <v>5</v>
+      </c>
+      <c r="R30" t="n">
+        <v>5</v>
+      </c>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>247</v>
+      </c>
+      <c r="X30" t="s">
+        <v>248</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>64882</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>255</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>256</v>
+      </c>
+      <c r="J31" t="s">
+        <v>257</v>
+      </c>
+      <c r="K31" t="s">
+        <v>258</v>
+      </c>
+      <c r="L31" t="s">
+        <v>259</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>226</v>
+      </c>
+      <c r="O31" t="s">
+        <v>85</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>260</v>
+      </c>
+      <c r="X31" t="s">
+        <v>261</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>64882</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>263</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>264</v>
+      </c>
+      <c r="J32" t="s">
+        <v>265</v>
+      </c>
+      <c r="K32" t="s">
+        <v>266</v>
+      </c>
+      <c r="L32" t="s">
+        <v>267</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>226</v>
+      </c>
+      <c r="O32" t="s">
+        <v>85</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="s"/>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>268</v>
+      </c>
+      <c r="X32" t="s">
+        <v>269</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>64882</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>271</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>272</v>
+      </c>
+      <c r="J33" t="s">
+        <v>265</v>
+      </c>
+      <c r="K33" t="s">
+        <v>187</v>
+      </c>
+      <c r="L33" t="s">
+        <v>273</v>
+      </c>
+      <c r="M33" t="n">
+        <v>3</v>
+      </c>
+      <c r="N33" t="s">
+        <v>226</v>
+      </c>
+      <c r="O33" t="s">
+        <v>85</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>268</v>
+      </c>
+      <c r="X33" t="s">
+        <v>269</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>64882</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>275</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>276</v>
+      </c>
+      <c r="J34" t="s">
+        <v>277</v>
+      </c>
+      <c r="K34" t="s">
+        <v>278</v>
+      </c>
+      <c r="L34" t="s">
+        <v>279</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>226</v>
+      </c>
+      <c r="O34" t="s">
+        <v>62</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="s"/>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>280</v>
+      </c>
+      <c r="X34" t="s">
+        <v>281</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>64882</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>283</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>284</v>
+      </c>
+      <c r="J35" t="s">
+        <v>285</v>
+      </c>
+      <c r="K35" t="s">
+        <v>286</v>
+      </c>
+      <c r="L35" t="s">
+        <v>287</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>226</v>
+      </c>
+      <c r="O35" t="s">
+        <v>203</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="s"/>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>288</v>
+      </c>
+      <c r="X35" t="s">
+        <v>289</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>64882</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>291</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>292</v>
+      </c>
+      <c r="J36" t="s">
+        <v>285</v>
+      </c>
+      <c r="K36" t="s">
+        <v>293</v>
+      </c>
+      <c r="L36" t="s">
+        <v>294</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>226</v>
+      </c>
+      <c r="O36" t="s">
+        <v>62</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="s"/>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>288</v>
+      </c>
+      <c r="X36" t="s">
+        <v>289</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>64882</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>296</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>297</v>
+      </c>
+      <c r="J37" t="s">
+        <v>298</v>
+      </c>
+      <c r="K37" t="s">
+        <v>299</v>
+      </c>
+      <c r="L37" t="s">
+        <v>300</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>226</v>
+      </c>
+      <c r="O37" t="s">
+        <v>85</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="s"/>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>301</v>
+      </c>
+      <c r="X37" t="s">
+        <v>302</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>64882</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>304</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>305</v>
+      </c>
+      <c r="J38" t="s">
+        <v>306</v>
+      </c>
+      <c r="K38" t="s">
+        <v>307</v>
+      </c>
+      <c r="L38" t="s">
+        <v>308</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>309</v>
+      </c>
+      <c r="O38" t="s">
+        <v>62</v>
+      </c>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>5</v>
+      </c>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>310</v>
+      </c>
+      <c r="X38" t="s">
+        <v>311</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>64882</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>313</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>314</v>
+      </c>
+      <c r="J39" t="s">
+        <v>306</v>
+      </c>
+      <c r="K39" t="s">
+        <v>315</v>
+      </c>
+      <c r="L39" t="s">
+        <v>316</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>226</v>
+      </c>
+      <c r="O39" t="s">
+        <v>203</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="s"/>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>310</v>
+      </c>
+      <c r="X39" t="s">
+        <v>311</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>64882</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>318</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>319</v>
+      </c>
+      <c r="J40" t="s">
+        <v>320</v>
+      </c>
+      <c r="K40" t="s">
+        <v>321</v>
+      </c>
+      <c r="L40" t="s">
+        <v>322</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>226</v>
+      </c>
+      <c r="O40" t="s">
+        <v>62</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="n">
+        <v>5</v>
+      </c>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>323</v>
+      </c>
+      <c r="X40" t="s">
+        <v>324</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>64882</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>326</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>327</v>
+      </c>
+      <c r="J41" t="s">
+        <v>328</v>
+      </c>
+      <c r="K41" t="s">
+        <v>329</v>
+      </c>
+      <c r="L41" t="s">
+        <v>330</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>226</v>
+      </c>
+      <c r="O41" t="s">
+        <v>62</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="s"/>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>331</v>
+      </c>
+      <c r="X41" t="s">
+        <v>332</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>64882</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>334</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>335</v>
+      </c>
+      <c r="J42" t="s">
+        <v>336</v>
+      </c>
+      <c r="K42" t="s">
+        <v>337</v>
+      </c>
+      <c r="L42" t="s">
+        <v>338</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s"/>
+      <c r="O42" t="s"/>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="s"/>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>339</v>
+      </c>
+      <c r="X42" t="s">
+        <v>340</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>64882</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>342</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>343</v>
+      </c>
+      <c r="J43" t="s">
+        <v>344</v>
+      </c>
+      <c r="K43" t="s">
+        <v>345</v>
+      </c>
+      <c r="L43" t="s">
+        <v>346</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>226</v>
+      </c>
+      <c r="O43" t="s">
+        <v>203</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="n">
+        <v>4</v>
+      </c>
+      <c r="R43" t="s"/>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>339</v>
+      </c>
+      <c r="X43" t="s">
+        <v>340</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>64882</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>348</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>349</v>
+      </c>
+      <c r="J44" t="s">
+        <v>350</v>
+      </c>
+      <c r="K44" t="s">
+        <v>351</v>
+      </c>
+      <c r="L44" t="s">
+        <v>352</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>309</v>
+      </c>
+      <c r="O44" t="s">
+        <v>85</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="s"/>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>353</v>
+      </c>
+      <c r="X44" t="s">
+        <v>354</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>64882</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>356</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>357</v>
+      </c>
+      <c r="J45" t="s">
+        <v>358</v>
+      </c>
+      <c r="K45" t="s">
+        <v>359</v>
+      </c>
+      <c r="L45" t="s">
+        <v>360</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>309</v>
+      </c>
+      <c r="O45" t="s">
+        <v>62</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="s"/>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>361</v>
+      </c>
+      <c r="X45" t="s">
+        <v>362</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>64882</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>364</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>365</v>
+      </c>
+      <c r="J46" t="s">
+        <v>366</v>
+      </c>
+      <c r="K46" t="s">
+        <v>367</v>
+      </c>
+      <c r="L46" t="s">
+        <v>368</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>309</v>
+      </c>
+      <c r="O46" t="s">
+        <v>62</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="s"/>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>361</v>
+      </c>
+      <c r="X46" t="s">
+        <v>362</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>64882</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>370</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>371</v>
+      </c>
+      <c r="J47" t="s">
+        <v>372</v>
+      </c>
+      <c r="K47" t="s">
+        <v>373</v>
+      </c>
+      <c r="L47" t="s">
+        <v>374</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>309</v>
+      </c>
+      <c r="O47" t="s">
+        <v>62</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="s"/>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>375</v>
+      </c>
+      <c r="X47" t="s">
+        <v>376</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>64882</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>378</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>379</v>
+      </c>
+      <c r="J48" t="s">
+        <v>372</v>
+      </c>
+      <c r="K48" t="s">
+        <v>380</v>
+      </c>
+      <c r="L48" t="s">
+        <v>381</v>
+      </c>
+      <c r="M48" t="n">
+        <v>3</v>
+      </c>
+      <c r="N48" t="s">
+        <v>309</v>
+      </c>
+      <c r="O48" t="s">
+        <v>203</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="n">
+        <v>4</v>
+      </c>
+      <c r="R48" t="s"/>
+      <c r="S48" t="n">
+        <v>1</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>3</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>382</v>
+      </c>
+      <c r="X48" t="s">
+        <v>383</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>64882</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>385</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>386</v>
+      </c>
+      <c r="J49" t="s">
+        <v>372</v>
+      </c>
+      <c r="K49" t="s">
+        <v>387</v>
+      </c>
+      <c r="L49" t="s">
+        <v>388</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>309</v>
+      </c>
+      <c r="O49" t="s">
+        <v>85</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="s"/>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>389</v>
+      </c>
+      <c r="X49" t="s">
+        <v>390</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>64882</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>392</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>393</v>
+      </c>
+      <c r="J50" t="s">
+        <v>394</v>
+      </c>
+      <c r="K50" t="s">
+        <v>395</v>
+      </c>
+      <c r="L50" t="s">
+        <v>396</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>309</v>
+      </c>
+      <c r="O50" t="s">
+        <v>62</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="s"/>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>397</v>
+      </c>
+      <c r="X50" t="s">
+        <v>398</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>64882</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>400</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>401</v>
+      </c>
+      <c r="J51" t="s">
+        <v>394</v>
+      </c>
+      <c r="K51" t="s">
+        <v>402</v>
+      </c>
+      <c r="L51" t="s">
+        <v>403</v>
+      </c>
+      <c r="M51" t="n">
+        <v>1</v>
+      </c>
+      <c r="N51" t="s">
+        <v>309</v>
+      </c>
+      <c r="O51" t="s">
+        <v>62</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="s"/>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>397</v>
+      </c>
+      <c r="X51" t="s">
+        <v>398</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>64882</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>405</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>406</v>
+      </c>
+      <c r="J52" t="s">
+        <v>394</v>
+      </c>
+      <c r="K52" t="s">
+        <v>407</v>
+      </c>
+      <c r="L52" t="s">
+        <v>408</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>309</v>
+      </c>
+      <c r="O52" t="s">
+        <v>62</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="s"/>
+      <c r="S52" t="s"/>
+      <c r="T52" t="s"/>
+      <c r="U52" t="s"/>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>409</v>
+      </c>
+      <c r="X52" t="s">
+        <v>410</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>64882</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>412</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>413</v>
+      </c>
+      <c r="J53" t="s">
+        <v>414</v>
+      </c>
+      <c r="K53" t="s">
+        <v>415</v>
+      </c>
+      <c r="L53" t="s">
+        <v>416</v>
+      </c>
+      <c r="M53" t="n">
+        <v>4</v>
+      </c>
+      <c r="N53" t="s">
+        <v>309</v>
+      </c>
+      <c r="O53" t="s">
+        <v>62</v>
+      </c>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="s"/>
+      <c r="S53" t="s"/>
+      <c r="T53" t="s"/>
+      <c r="U53" t="s"/>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>417</v>
+      </c>
+      <c r="X53" t="s">
+        <v>418</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>64882</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>420</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>421</v>
+      </c>
+      <c r="J54" t="s">
+        <v>422</v>
+      </c>
+      <c r="K54" t="s">
+        <v>423</v>
+      </c>
+      <c r="L54" t="s">
+        <v>424</v>
+      </c>
+      <c r="M54" t="n">
+        <v>3</v>
+      </c>
+      <c r="N54" t="s">
+        <v>309</v>
+      </c>
+      <c r="O54" t="s">
+        <v>62</v>
+      </c>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="s"/>
+      <c r="S54" t="s"/>
+      <c r="T54" t="s"/>
+      <c r="U54" t="s"/>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>425</v>
+      </c>
+      <c r="X54" t="s">
+        <v>426</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>64882</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>428</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>429</v>
+      </c>
+      <c r="J55" t="s">
+        <v>430</v>
+      </c>
+      <c r="K55" t="s">
+        <v>431</v>
+      </c>
+      <c r="L55" t="s">
+        <v>432</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>309</v>
+      </c>
+      <c r="O55" t="s">
+        <v>203</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="n">
+        <v>5</v>
+      </c>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>425</v>
+      </c>
+      <c r="X55" t="s">
+        <v>426</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>64882</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>434</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>435</v>
+      </c>
+      <c r="J56" t="s">
+        <v>436</v>
+      </c>
+      <c r="K56" t="s">
+        <v>437</v>
+      </c>
+      <c r="L56" t="s">
+        <v>438</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>439</v>
+      </c>
+      <c r="O56" t="s">
+        <v>85</v>
+      </c>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="s"/>
+      <c r="S56" t="s"/>
+      <c r="T56" t="s"/>
+      <c r="U56" t="s"/>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>440</v>
+      </c>
+      <c r="X56" t="s">
+        <v>441</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>64882</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>443</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>444</v>
+      </c>
+      <c r="J57" t="s">
+        <v>445</v>
+      </c>
+      <c r="K57" t="s">
+        <v>446</v>
+      </c>
+      <c r="L57" t="s">
+        <v>447</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>309</v>
+      </c>
+      <c r="O57" t="s">
+        <v>85</v>
+      </c>
+      <c r="P57" t="s"/>
+      <c r="Q57" t="s"/>
+      <c r="R57" t="s"/>
+      <c r="S57" t="s"/>
+      <c r="T57" t="s"/>
+      <c r="U57" t="s"/>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>448</v>
+      </c>
+      <c r="X57" t="s">
+        <v>449</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>64882</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>451</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>452</v>
+      </c>
+      <c r="J58" t="s">
+        <v>445</v>
+      </c>
+      <c r="K58" t="s">
+        <v>453</v>
+      </c>
+      <c r="L58" t="s">
+        <v>454</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>309</v>
+      </c>
+      <c r="O58" t="s">
+        <v>121</v>
+      </c>
+      <c r="P58" t="s"/>
+      <c r="Q58" t="s"/>
+      <c r="R58" t="s"/>
+      <c r="S58" t="s"/>
+      <c r="T58" t="s"/>
+      <c r="U58" t="s"/>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>448</v>
+      </c>
+      <c r="X58" t="s">
+        <v>449</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>64882</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>456</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>457</v>
+      </c>
+      <c r="J59" t="s">
+        <v>458</v>
+      </c>
+      <c r="K59" t="s">
+        <v>459</v>
+      </c>
+      <c r="L59" t="s">
+        <v>460</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>439</v>
+      </c>
+      <c r="O59" t="s">
+        <v>121</v>
+      </c>
+      <c r="P59" t="s"/>
+      <c r="Q59" t="s"/>
+      <c r="R59" t="s"/>
+      <c r="S59" t="s"/>
+      <c r="T59" t="s"/>
+      <c r="U59" t="s"/>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>461</v>
+      </c>
+      <c r="X59" t="s">
+        <v>462</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>64882</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>464</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>465</v>
+      </c>
+      <c r="J60" t="s">
+        <v>466</v>
+      </c>
+      <c r="K60" t="s">
+        <v>467</v>
+      </c>
+      <c r="L60" t="s">
+        <v>468</v>
+      </c>
+      <c r="M60" t="n">
+        <v>3</v>
+      </c>
+      <c r="N60" t="s">
+        <v>469</v>
+      </c>
+      <c r="O60" t="s">
+        <v>85</v>
+      </c>
+      <c r="P60" t="s"/>
+      <c r="Q60" t="n">
+        <v>2</v>
+      </c>
+      <c r="R60" t="s"/>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>3</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>461</v>
+      </c>
+      <c r="X60" t="s">
+        <v>462</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>64882</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>471</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>472</v>
+      </c>
+      <c r="J61" t="s">
+        <v>473</v>
+      </c>
+      <c r="K61" t="s">
+        <v>474</v>
+      </c>
+      <c r="L61" t="s">
+        <v>475</v>
+      </c>
+      <c r="M61" t="n">
+        <v>2</v>
+      </c>
+      <c r="N61" t="s">
+        <v>439</v>
+      </c>
+      <c r="O61" t="s">
+        <v>62</v>
+      </c>
+      <c r="P61" t="s"/>
+      <c r="Q61" t="n">
+        <v>2</v>
+      </c>
+      <c r="R61" t="s"/>
+      <c r="S61" t="s"/>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>3</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>476</v>
+      </c>
+      <c r="X61" t="s">
+        <v>477</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>64882</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>479</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>480</v>
+      </c>
+      <c r="J62" t="s">
+        <v>481</v>
+      </c>
+      <c r="K62" t="s">
+        <v>482</v>
+      </c>
+      <c r="L62" t="s">
+        <v>483</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>484</v>
+      </c>
+      <c r="O62" t="s">
+        <v>203</v>
+      </c>
+      <c r="P62" t="s"/>
+      <c r="Q62" t="n">
+        <v>5</v>
+      </c>
+      <c r="R62" t="s"/>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>485</v>
+      </c>
+      <c r="X62" t="s">
+        <v>486</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>64882</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>488</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>489</v>
+      </c>
+      <c r="J63" t="s">
+        <v>481</v>
+      </c>
+      <c r="K63" t="s">
+        <v>490</v>
+      </c>
+      <c r="L63" t="s">
+        <v>491</v>
+      </c>
+      <c r="M63" t="n">
+        <v>3</v>
+      </c>
+      <c r="N63" t="s">
+        <v>484</v>
+      </c>
+      <c r="O63" t="s">
+        <v>62</v>
+      </c>
+      <c r="P63" t="s"/>
+      <c r="Q63" t="s"/>
+      <c r="R63" t="n">
+        <v>4</v>
+      </c>
+      <c r="S63" t="n">
+        <v>4</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>4</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>485</v>
+      </c>
+      <c r="X63" t="s">
+        <v>486</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>64882</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>493</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>494</v>
+      </c>
+      <c r="J64" t="s">
+        <v>495</v>
+      </c>
+      <c r="K64" t="s">
+        <v>496</v>
+      </c>
+      <c r="L64" t="s">
+        <v>497</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s">
+        <v>484</v>
+      </c>
+      <c r="O64" t="s">
+        <v>85</v>
+      </c>
+      <c r="P64" t="s"/>
+      <c r="Q64" t="s"/>
+      <c r="R64" t="s"/>
+      <c r="S64" t="s"/>
+      <c r="T64" t="s"/>
+      <c r="U64" t="s"/>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>485</v>
+      </c>
+      <c r="X64" t="s">
+        <v>486</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>64882</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>499</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>500</v>
+      </c>
+      <c r="J65" t="s">
+        <v>501</v>
+      </c>
+      <c r="K65" t="s">
+        <v>502</v>
+      </c>
+      <c r="L65" t="s">
+        <v>503</v>
+      </c>
+      <c r="M65" t="n">
+        <v>4</v>
+      </c>
+      <c r="N65" t="s">
+        <v>484</v>
+      </c>
+      <c r="O65" t="s">
+        <v>203</v>
+      </c>
+      <c r="P65" t="s"/>
+      <c r="Q65" t="s"/>
+      <c r="R65" t="s"/>
+      <c r="S65" t="s"/>
+      <c r="T65" t="s"/>
+      <c r="U65" t="s"/>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>504</v>
+      </c>
+      <c r="X65" t="s">
+        <v>505</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>64882</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>507</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>508</v>
+      </c>
+      <c r="J66" t="s">
+        <v>501</v>
+      </c>
+      <c r="K66" t="s">
+        <v>509</v>
+      </c>
+      <c r="L66" t="s">
+        <v>510</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s">
+        <v>484</v>
+      </c>
+      <c r="O66" t="s">
+        <v>85</v>
+      </c>
+      <c r="P66" t="s"/>
+      <c r="Q66" t="s"/>
+      <c r="R66" t="s"/>
+      <c r="S66" t="s"/>
+      <c r="T66" t="s"/>
+      <c r="U66" t="s"/>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>504</v>
+      </c>
+      <c r="X66" t="s">
+        <v>505</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>64882</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>512</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>513</v>
+      </c>
+      <c r="J67" t="s">
+        <v>514</v>
+      </c>
+      <c r="K67" t="s">
+        <v>515</v>
+      </c>
+      <c r="L67" t="s">
+        <v>516</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s">
+        <v>484</v>
+      </c>
+      <c r="O67" t="s">
+        <v>85</v>
+      </c>
+      <c r="P67" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>5</v>
+      </c>
+      <c r="R67" t="s"/>
+      <c r="S67" t="s"/>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>504</v>
+      </c>
+      <c r="X67" t="s">
+        <v>505</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>64882</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>518</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>519</v>
+      </c>
+      <c r="J68" t="s">
+        <v>520</v>
+      </c>
+      <c r="K68" t="s">
+        <v>266</v>
+      </c>
+      <c r="L68" t="s">
+        <v>521</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s">
+        <v>522</v>
+      </c>
+      <c r="O68" t="s">
+        <v>203</v>
+      </c>
+      <c r="P68" t="s"/>
+      <c r="Q68" t="s"/>
+      <c r="R68" t="n">
+        <v>5</v>
+      </c>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>523</v>
+      </c>
+      <c r="X68" t="s">
+        <v>524</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>64882</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>526</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>527</v>
+      </c>
+      <c r="J69" t="s">
+        <v>528</v>
+      </c>
+      <c r="K69" t="s">
+        <v>529</v>
+      </c>
+      <c r="L69" t="s">
+        <v>530</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>484</v>
+      </c>
+      <c r="O69" t="s">
+        <v>203</v>
+      </c>
+      <c r="P69" t="s"/>
+      <c r="Q69" t="s"/>
+      <c r="R69" t="s"/>
+      <c r="S69" t="s"/>
+      <c r="T69" t="s"/>
+      <c r="U69" t="s"/>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>523</v>
+      </c>
+      <c r="X69" t="s">
+        <v>524</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>64882</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>532</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>533</v>
+      </c>
+      <c r="J70" t="s">
+        <v>528</v>
+      </c>
+      <c r="K70" t="s">
+        <v>534</v>
+      </c>
+      <c r="L70" t="s">
+        <v>535</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s">
+        <v>484</v>
+      </c>
+      <c r="O70" t="s">
+        <v>62</v>
+      </c>
+      <c r="P70" t="s"/>
+      <c r="Q70" t="s"/>
+      <c r="R70" t="s"/>
+      <c r="S70" t="s"/>
+      <c r="T70" t="s"/>
+      <c r="U70" t="s"/>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>523</v>
+      </c>
+      <c r="X70" t="s">
+        <v>524</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>64882</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>537</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>538</v>
+      </c>
+      <c r="J71" t="s">
+        <v>539</v>
+      </c>
+      <c r="K71" t="s">
+        <v>540</v>
+      </c>
+      <c r="L71" t="s">
+        <v>541</v>
+      </c>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="s">
+        <v>484</v>
+      </c>
+      <c r="O71" t="s">
+        <v>203</v>
+      </c>
+      <c r="P71" t="s"/>
+      <c r="Q71" t="s"/>
+      <c r="R71" t="s"/>
+      <c r="S71" t="s"/>
+      <c r="T71" t="s"/>
+      <c r="U71" t="s"/>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>542</v>
+      </c>
+      <c r="X71" t="s">
+        <v>543</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>64882</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>545</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>546</v>
+      </c>
+      <c r="J72" t="s">
+        <v>547</v>
+      </c>
+      <c r="K72" t="s">
+        <v>548</v>
+      </c>
+      <c r="L72" t="s">
+        <v>549</v>
+      </c>
+      <c r="M72" t="n">
+        <v>4</v>
+      </c>
+      <c r="N72" t="s">
+        <v>484</v>
+      </c>
+      <c r="O72" t="s">
+        <v>62</v>
+      </c>
+      <c r="P72" t="s"/>
+      <c r="Q72" t="s"/>
+      <c r="R72" t="s"/>
+      <c r="S72" t="s"/>
+      <c r="T72" t="s"/>
+      <c r="U72" t="s"/>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>550</v>
+      </c>
+      <c r="X72" t="s">
+        <v>551</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>64882</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>553</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>554</v>
+      </c>
+      <c r="J73" t="s">
+        <v>555</v>
+      </c>
+      <c r="K73" t="s">
+        <v>556</v>
+      </c>
+      <c r="L73" t="s">
+        <v>557</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s">
+        <v>484</v>
+      </c>
+      <c r="O73" t="s">
+        <v>85</v>
+      </c>
+      <c r="P73" t="s"/>
+      <c r="Q73" t="n">
+        <v>5</v>
+      </c>
+      <c r="R73" t="n">
+        <v>5</v>
+      </c>
+      <c r="S73" t="s"/>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>550</v>
+      </c>
+      <c r="X73" t="s">
+        <v>551</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>64882</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>559</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>560</v>
+      </c>
+      <c r="J74" t="s">
+        <v>561</v>
+      </c>
+      <c r="K74" t="s">
+        <v>562</v>
+      </c>
+      <c r="L74" t="s">
+        <v>563</v>
+      </c>
+      <c r="M74" t="n">
+        <v>5</v>
+      </c>
+      <c r="N74" t="s">
+        <v>484</v>
+      </c>
+      <c r="O74" t="s">
+        <v>203</v>
+      </c>
+      <c r="P74" t="s"/>
+      <c r="Q74" t="s"/>
+      <c r="R74" t="s"/>
+      <c r="S74" t="s"/>
+      <c r="T74" t="s"/>
+      <c r="U74" t="s"/>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>564</v>
+      </c>
+      <c r="X74" t="s">
+        <v>565</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>64882</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>567</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>568</v>
+      </c>
+      <c r="J75" t="s">
+        <v>561</v>
+      </c>
+      <c r="K75" t="s">
+        <v>569</v>
+      </c>
+      <c r="L75" t="s">
+        <v>570</v>
+      </c>
+      <c r="M75" t="n">
+        <v>5</v>
+      </c>
+      <c r="N75" t="s">
+        <v>484</v>
+      </c>
+      <c r="O75" t="s">
+        <v>85</v>
+      </c>
+      <c r="P75" t="s"/>
+      <c r="Q75" t="s"/>
+      <c r="R75" t="s"/>
+      <c r="S75" t="s"/>
+      <c r="T75" t="s"/>
+      <c r="U75" t="s"/>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>564</v>
+      </c>
+      <c r="X75" t="s">
+        <v>565</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>64882</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>572</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>573</v>
+      </c>
+      <c r="J76" t="s">
+        <v>561</v>
+      </c>
+      <c r="K76" t="s">
+        <v>574</v>
+      </c>
+      <c r="L76" t="s">
+        <v>575</v>
+      </c>
+      <c r="M76" t="n">
+        <v>5</v>
+      </c>
+      <c r="N76" t="s">
+        <v>484</v>
+      </c>
+      <c r="O76" t="s">
+        <v>62</v>
+      </c>
+      <c r="P76" t="s"/>
+      <c r="Q76" t="s"/>
+      <c r="R76" t="s"/>
+      <c r="S76" t="n">
+        <v>5</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>576</v>
+      </c>
+      <c r="X76" t="s">
+        <v>577</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>64882</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>579</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>580</v>
+      </c>
+      <c r="J77" t="s">
+        <v>581</v>
+      </c>
+      <c r="K77" t="s">
+        <v>582</v>
+      </c>
+      <c r="L77" t="s">
+        <v>583</v>
+      </c>
+      <c r="M77" t="n">
+        <v>5</v>
+      </c>
+      <c r="N77" t="s">
+        <v>484</v>
+      </c>
+      <c r="O77" t="s">
+        <v>85</v>
+      </c>
+      <c r="P77" t="s"/>
+      <c r="Q77" t="s"/>
+      <c r="R77" t="n">
+        <v>5</v>
+      </c>
+      <c r="S77" t="s"/>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s">
+        <v>584</v>
+      </c>
+      <c r="X77" t="s">
+        <v>585</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>64882</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>587</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>588</v>
+      </c>
+      <c r="J78" t="s">
+        <v>589</v>
+      </c>
+      <c r="K78" t="s">
+        <v>590</v>
+      </c>
+      <c r="L78" t="s">
+        <v>591</v>
+      </c>
+      <c r="M78" t="n">
+        <v>5</v>
+      </c>
+      <c r="N78" t="s">
+        <v>522</v>
+      </c>
+      <c r="O78" t="s">
+        <v>62</v>
+      </c>
+      <c r="P78" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q78" t="s"/>
+      <c r="R78" t="s"/>
+      <c r="S78" t="n">
+        <v>5</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>5</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s">
+        <v>584</v>
+      </c>
+      <c r="X78" t="s">
+        <v>585</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>64882</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>593</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>594</v>
+      </c>
+      <c r="J79" t="s">
+        <v>589</v>
+      </c>
+      <c r="K79" t="s">
+        <v>595</v>
+      </c>
+      <c r="L79" t="s">
+        <v>596</v>
+      </c>
+      <c r="M79" t="n">
+        <v>5</v>
+      </c>
+      <c r="N79" t="s"/>
+      <c r="O79" t="s"/>
+      <c r="P79" t="s"/>
+      <c r="Q79" t="s"/>
+      <c r="R79" t="s"/>
+      <c r="S79" t="s"/>
+      <c r="T79" t="s"/>
+      <c r="U79" t="s"/>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s">
+        <v>584</v>
+      </c>
+      <c r="X79" t="s">
+        <v>585</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>64882</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>598</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>599</v>
+      </c>
+      <c r="J80" t="s">
+        <v>600</v>
+      </c>
+      <c r="K80" t="s">
+        <v>601</v>
+      </c>
+      <c r="L80" t="s">
+        <v>602</v>
+      </c>
+      <c r="M80" t="n">
+        <v>4</v>
+      </c>
+      <c r="N80" t="s">
+        <v>522</v>
+      </c>
+      <c r="O80" t="s">
+        <v>203</v>
+      </c>
+      <c r="P80" t="s"/>
+      <c r="Q80" t="s"/>
+      <c r="R80" t="s"/>
+      <c r="S80" t="s"/>
+      <c r="T80" t="s"/>
+      <c r="U80" t="s"/>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s">
+        <v>603</v>
+      </c>
+      <c r="X80" t="s">
+        <v>604</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>64882</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>606</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>607</v>
+      </c>
+      <c r="J81" t="s">
+        <v>608</v>
+      </c>
+      <c r="K81" t="s">
+        <v>609</v>
+      </c>
+      <c r="L81" t="s">
+        <v>610</v>
+      </c>
+      <c r="M81" t="n">
+        <v>5</v>
+      </c>
+      <c r="N81" t="s">
+        <v>611</v>
+      </c>
+      <c r="O81" t="s">
+        <v>85</v>
+      </c>
+      <c r="P81" t="s"/>
+      <c r="Q81" t="n">
+        <v>5</v>
+      </c>
+      <c r="R81" t="s"/>
+      <c r="S81" t="n">
+        <v>5</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>5</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s">
+        <v>603</v>
+      </c>
+      <c r="X81" t="s">
+        <v>604</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>64882</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>613</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>614</v>
+      </c>
+      <c r="J82" t="s">
+        <v>615</v>
+      </c>
+      <c r="K82" t="s">
+        <v>616</v>
+      </c>
+      <c r="L82" t="s">
+        <v>617</v>
+      </c>
+      <c r="M82" t="n">
+        <v>4</v>
+      </c>
+      <c r="N82" t="s">
+        <v>522</v>
+      </c>
+      <c r="O82" t="s">
+        <v>203</v>
+      </c>
+      <c r="P82" t="s"/>
+      <c r="Q82" t="s"/>
+      <c r="R82" t="s"/>
+      <c r="S82" t="n">
+        <v>3</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>4</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s">
+        <v>618</v>
+      </c>
+      <c r="X82" t="s">
+        <v>619</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>64882</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>621</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>622</v>
+      </c>
+      <c r="J83" t="s">
+        <v>623</v>
+      </c>
+      <c r="K83" t="s">
+        <v>624</v>
+      </c>
+      <c r="L83" t="s">
+        <v>625</v>
+      </c>
+      <c r="M83" t="n">
+        <v>5</v>
+      </c>
+      <c r="N83" t="s"/>
+      <c r="O83" t="s"/>
+      <c r="P83" t="s"/>
+      <c r="Q83" t="s"/>
+      <c r="R83" t="s"/>
+      <c r="S83" t="s"/>
+      <c r="T83" t="s"/>
+      <c r="U83" t="s"/>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s">
+        <v>626</v>
+      </c>
+      <c r="X83" t="s">
+        <v>627</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>64882</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>629</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>630</v>
+      </c>
+      <c r="J84" t="s">
+        <v>631</v>
+      </c>
+      <c r="K84" t="s">
+        <v>632</v>
+      </c>
+      <c r="L84" t="s">
+        <v>633</v>
+      </c>
+      <c r="M84" t="n">
+        <v>4</v>
+      </c>
+      <c r="N84" t="s">
+        <v>522</v>
+      </c>
+      <c r="O84" t="s">
+        <v>62</v>
+      </c>
+      <c r="P84" t="s"/>
+      <c r="Q84" t="s"/>
+      <c r="R84" t="s"/>
+      <c r="S84" t="s"/>
+      <c r="T84" t="s"/>
+      <c r="U84" t="s"/>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s">
+        <v>626</v>
+      </c>
+      <c r="X84" t="s">
+        <v>627</v>
+      </c>
+      <c r="Y84" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>64882</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>635</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>636</v>
+      </c>
+      <c r="J85" t="s">
+        <v>637</v>
+      </c>
+      <c r="K85" t="s">
+        <v>638</v>
+      </c>
+      <c r="L85" t="s">
+        <v>639</v>
+      </c>
+      <c r="M85" t="n">
+        <v>3</v>
+      </c>
+      <c r="N85" t="s">
+        <v>522</v>
+      </c>
+      <c r="O85" t="s">
+        <v>85</v>
+      </c>
+      <c r="P85" t="s"/>
+      <c r="Q85" t="n">
+        <v>3</v>
+      </c>
+      <c r="R85" t="s"/>
+      <c r="S85" t="n">
+        <v>5</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>4</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s">
+        <v>626</v>
+      </c>
+      <c r="X85" t="s">
+        <v>627</v>
+      </c>
+      <c r="Y85" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>64882</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>641</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>642</v>
+      </c>
+      <c r="J86" t="s">
+        <v>643</v>
+      </c>
+      <c r="K86" t="s">
+        <v>467</v>
+      </c>
+      <c r="L86" t="s">
+        <v>644</v>
+      </c>
+      <c r="M86" t="n">
+        <v>3</v>
+      </c>
+      <c r="N86" t="s">
+        <v>611</v>
+      </c>
+      <c r="O86" t="s">
+        <v>62</v>
+      </c>
+      <c r="P86" t="s"/>
+      <c r="Q86" t="s"/>
+      <c r="R86" t="s"/>
+      <c r="S86" t="s"/>
+      <c r="T86" t="s"/>
+      <c r="U86" t="s"/>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s">
+        <v>645</v>
+      </c>
+      <c r="X86" t="s">
+        <v>646</v>
+      </c>
+      <c r="Y86" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>64882</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>648</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>649</v>
+      </c>
+      <c r="J87" t="s">
+        <v>650</v>
+      </c>
+      <c r="K87" t="s">
+        <v>651</v>
+      </c>
+      <c r="L87" t="s">
+        <v>652</v>
+      </c>
+      <c r="M87" t="n">
+        <v>5</v>
+      </c>
+      <c r="N87" t="s">
+        <v>611</v>
+      </c>
+      <c r="O87" t="s">
+        <v>62</v>
+      </c>
+      <c r="P87" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q87" t="s"/>
+      <c r="R87" t="n">
+        <v>5</v>
+      </c>
+      <c r="S87" t="s"/>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>5</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s">
+        <v>653</v>
+      </c>
+      <c r="X87" t="s">
+        <v>654</v>
+      </c>
+      <c r="Y87" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>64882</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>656</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>657</v>
+      </c>
+      <c r="J88" t="s">
+        <v>658</v>
+      </c>
+      <c r="K88" t="s">
+        <v>659</v>
+      </c>
+      <c r="L88" t="s">
+        <v>660</v>
+      </c>
+      <c r="M88" t="n">
+        <v>5</v>
+      </c>
+      <c r="N88" t="s">
+        <v>611</v>
+      </c>
+      <c r="O88" t="s">
+        <v>85</v>
+      </c>
+      <c r="P88" t="s"/>
+      <c r="Q88" t="s"/>
+      <c r="R88" t="s"/>
+      <c r="S88" t="s"/>
+      <c r="T88" t="s"/>
+      <c r="U88" t="s"/>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s">
+        <v>661</v>
+      </c>
+      <c r="X88" t="s">
+        <v>662</v>
+      </c>
+      <c r="Y88" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>64882</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>664</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>665</v>
+      </c>
+      <c r="J89" t="s">
+        <v>666</v>
+      </c>
+      <c r="K89" t="s">
+        <v>667</v>
+      </c>
+      <c r="L89" t="s">
+        <v>668</v>
+      </c>
+      <c r="M89" t="n">
+        <v>4</v>
+      </c>
+      <c r="N89" t="s">
+        <v>611</v>
+      </c>
+      <c r="O89" t="s">
+        <v>62</v>
+      </c>
+      <c r="P89" t="s"/>
+      <c r="Q89" t="n">
+        <v>4</v>
+      </c>
+      <c r="R89" t="s"/>
+      <c r="S89" t="s"/>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>4</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s">
+        <v>669</v>
+      </c>
+      <c r="X89" t="s">
+        <v>670</v>
+      </c>
+      <c r="Y89" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>64882</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>672</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>673</v>
+      </c>
+      <c r="J90" t="s">
+        <v>674</v>
+      </c>
+      <c r="K90" t="s">
+        <v>675</v>
+      </c>
+      <c r="L90" t="s">
+        <v>676</v>
+      </c>
+      <c r="M90" t="n">
+        <v>3</v>
+      </c>
+      <c r="N90" t="s">
+        <v>677</v>
+      </c>
+      <c r="O90" t="s">
+        <v>121</v>
+      </c>
+      <c r="P90" t="s"/>
+      <c r="Q90" t="s"/>
+      <c r="R90" t="s"/>
+      <c r="S90" t="s"/>
+      <c r="T90" t="s"/>
+      <c r="U90" t="s"/>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s">
+        <v>678</v>
+      </c>
+      <c r="X90" t="s">
+        <v>679</v>
+      </c>
+      <c r="Y90" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>64882</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>681</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>682</v>
+      </c>
+      <c r="J91" t="s">
+        <v>683</v>
+      </c>
+      <c r="K91" t="s">
+        <v>684</v>
+      </c>
+      <c r="L91" t="s">
+        <v>685</v>
+      </c>
+      <c r="M91" t="n">
+        <v>5</v>
+      </c>
+      <c r="N91" t="s">
+        <v>611</v>
+      </c>
+      <c r="O91" t="s">
+        <v>62</v>
+      </c>
+      <c r="P91" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q91" t="s"/>
+      <c r="R91" t="s"/>
+      <c r="S91" t="n">
+        <v>5</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>5</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s">
+        <v>678</v>
+      </c>
+      <c r="X91" t="s">
+        <v>679</v>
+      </c>
+      <c r="Y91" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>64882</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>687</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>688</v>
+      </c>
+      <c r="J92" t="s">
+        <v>689</v>
+      </c>
+      <c r="K92" t="s">
+        <v>690</v>
+      </c>
+      <c r="L92" t="s">
+        <v>691</v>
+      </c>
+      <c r="M92" t="n">
+        <v>3</v>
+      </c>
+      <c r="N92" t="s"/>
+      <c r="O92" t="s"/>
+      <c r="P92" t="s"/>
+      <c r="Q92" t="s"/>
+      <c r="R92" t="s"/>
+      <c r="S92" t="s"/>
+      <c r="T92" t="s"/>
+      <c r="U92" t="s"/>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s">
+        <v>692</v>
+      </c>
+      <c r="X92" t="s">
+        <v>693</v>
+      </c>
+      <c r="Y92" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>64882</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>695</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>696</v>
+      </c>
+      <c r="J93" t="s">
+        <v>697</v>
+      </c>
+      <c r="K93" t="s">
+        <v>698</v>
+      </c>
+      <c r="L93" t="s">
+        <v>699</v>
+      </c>
+      <c r="M93" t="n">
+        <v>5</v>
+      </c>
+      <c r="N93" t="s">
+        <v>677</v>
+      </c>
+      <c r="O93" t="s">
+        <v>85</v>
+      </c>
+      <c r="P93" t="s"/>
+      <c r="Q93" t="n">
+        <v>5</v>
+      </c>
+      <c r="R93" t="s"/>
+      <c r="S93" t="s"/>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>5</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s">
+        <v>692</v>
+      </c>
+      <c r="X93" t="s">
+        <v>693</v>
+      </c>
+      <c r="Y93" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>64882</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>701</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>702</v>
+      </c>
+      <c r="J94" t="s">
+        <v>703</v>
+      </c>
+      <c r="K94" t="s">
+        <v>704</v>
+      </c>
+      <c r="L94" t="s">
+        <v>705</v>
+      </c>
+      <c r="M94" t="n">
+        <v>4</v>
+      </c>
+      <c r="N94" t="s">
+        <v>677</v>
+      </c>
+      <c r="O94" t="s">
+        <v>53</v>
+      </c>
+      <c r="P94" t="s"/>
+      <c r="Q94" t="s"/>
+      <c r="R94" t="s"/>
+      <c r="S94" t="s"/>
+      <c r="T94" t="s"/>
+      <c r="U94" t="s"/>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s">
+        <v>692</v>
+      </c>
+      <c r="X94" t="s">
+        <v>693</v>
+      </c>
+      <c r="Y94" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>64882</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>707</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>708</v>
+      </c>
+      <c r="J95" t="s">
+        <v>709</v>
+      </c>
+      <c r="K95" t="s">
+        <v>710</v>
+      </c>
+      <c r="L95" t="s">
+        <v>711</v>
+      </c>
+      <c r="M95" t="n">
+        <v>5</v>
+      </c>
+      <c r="N95" t="s">
+        <v>677</v>
+      </c>
+      <c r="O95" t="s">
+        <v>85</v>
+      </c>
+      <c r="P95" t="s"/>
+      <c r="Q95" t="s"/>
+      <c r="R95" t="s"/>
+      <c r="S95" t="n">
+        <v>5</v>
+      </c>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>5</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s">
+        <v>692</v>
+      </c>
+      <c r="X95" t="s">
+        <v>693</v>
+      </c>
+      <c r="Y95" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>64882</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s">
+        <v>713</v>
+      </c>
+      <c r="G96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" t="s">
+        <v>714</v>
+      </c>
+      <c r="J96" t="s">
+        <v>709</v>
+      </c>
+      <c r="K96" t="s">
+        <v>715</v>
+      </c>
+      <c r="L96" t="s">
+        <v>716</v>
+      </c>
+      <c r="M96" t="n">
+        <v>4</v>
+      </c>
+      <c r="N96" t="s">
+        <v>677</v>
+      </c>
+      <c r="O96" t="s">
+        <v>85</v>
+      </c>
+      <c r="P96" t="s"/>
+      <c r="Q96" t="s"/>
+      <c r="R96" t="s"/>
+      <c r="S96" t="s"/>
+      <c r="T96" t="s"/>
+      <c r="U96" t="s"/>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s">
+        <v>692</v>
+      </c>
+      <c r="X96" t="s">
+        <v>693</v>
+      </c>
+      <c r="Y96" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>64882</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>44</v>
+      </c>
+      <c r="F97" t="s">
+        <v>718</v>
+      </c>
+      <c r="G97" t="s">
+        <v>46</v>
+      </c>
+      <c r="H97" t="s">
+        <v>47</v>
+      </c>
+      <c r="I97" t="s">
+        <v>719</v>
+      </c>
+      <c r="J97" t="s">
+        <v>720</v>
+      </c>
+      <c r="K97" t="s">
+        <v>721</v>
+      </c>
+      <c r="L97" t="s">
+        <v>722</v>
+      </c>
+      <c r="M97" t="n">
+        <v>3</v>
+      </c>
+      <c r="N97" t="s">
+        <v>677</v>
+      </c>
+      <c r="O97" t="s">
+        <v>85</v>
+      </c>
+      <c r="P97" t="s"/>
+      <c r="Q97" t="s"/>
+      <c r="R97" t="s"/>
+      <c r="S97" t="s"/>
+      <c r="T97" t="s"/>
+      <c r="U97" t="s"/>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s">
+        <v>692</v>
+      </c>
+      <c r="X97" t="s">
+        <v>693</v>
+      </c>
+      <c r="Y97" t="s">
+        <v>723</v>
       </c>
     </row>
   </sheetData>
